--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work-src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2184620-81A3-984C-B08C-A6B1F6253DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA9013-4F1F-084C-B854-B52261C75079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4420" windowWidth="16800" windowHeight="15840" xr2:uid="{B0D5AA2F-57A6-0240-AB4C-88455F0B20FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3742,16 +3741,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5966D608-D48F-B244-934C-5D01D4528793}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work-src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA9013-4F1F-084C-B854-B52261C75079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E040C68-FE59-C24A-B559-AC4152CFC6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4420" windowWidth="16800" windowHeight="15840" xr2:uid="{B0D5AA2F-57A6-0240-AB4C-88455F0B20FF}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="27240" windowHeight="19840" xr2:uid="{B0D5AA2F-57A6-0240-AB4C-88455F0B20FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Magnus</author>
+    <author>magnus</author>
   </authors>
   <commentList>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7B2A6577-99BB-CF44-B859-3E058986FEDE}">
@@ -60,6 +61,85 @@
             <family val="2"/>
           </rPr>
           <t>190911</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{A4747542-37F0-7244-8123-C4D26CC5D33B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3JB9
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cryo-EM structure of the yeast spliceosome at 3.6 angstrom resolution
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{AC1C5B73-7DE6-5241-BF79-0FE45B600CCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>magnus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Cryo-EM structure of a human post-catalytic spliceosome (P complex) at 3.0 angstrom
+</t>
         </r>
       </text>
     </comment>
@@ -168,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="226">
   <si>
     <t>PRP8</t>
   </si>
@@ -230,9 +310,6 @@
     <t>BUD31</t>
   </si>
   <si>
-    <t>CWC2</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -614,9 +691,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>PRP16</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRP4 </t>
   </si>
   <si>
@@ -740,9 +814,6 @@
     <t>S6_ILS_5y88</t>
   </si>
   <si>
-    <t>(intron or U6 snRNA)</t>
-  </si>
-  <si>
     <t>Exon</t>
   </si>
   <si>
@@ -816,13 +887,52 @@
   </si>
   <si>
     <t>orange</t>
+  </si>
+  <si>
+    <t>O,Q</t>
+  </si>
+  <si>
+    <t>CWF15_yCWC15</t>
+  </si>
+  <si>
+    <t>Spp42_yPrp8</t>
+  </si>
+  <si>
+    <t>6ICZ</t>
+  </si>
+  <si>
+    <t>S6_hP_6icz</t>
+  </si>
+  <si>
+    <t>SX_pX_3jb9</t>
+  </si>
+  <si>
+    <t>hBa_6ff7</t>
+  </si>
+  <si>
+    <t>CWC2_hRBM22</t>
+  </si>
+  <si>
+    <t>hC_5yzg</t>
+  </si>
+  <si>
+    <t>PRP16_hDHX38</t>
+  </si>
+  <si>
+    <t>hX_5xjc</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PRKRIP1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,8 +1011,17 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,8 +1046,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -936,11 +1079,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -985,12 +1178,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1019,8 +1206,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1333,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0E72E8-F810-6348-9EC2-EDEFECB8AF9D}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,47 +1602,62 @@
     <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="29" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="25"/>
+    <col min="11" max="11" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1397,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -1414,7 +1682,7 @@
       <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1424,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1432,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>3</v>
@@ -1445,11 +1713,11 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1457,14 +1725,14 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
@@ -1472,7 +1740,7 @@
       <c r="H4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1482,46 +1750,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
@@ -1529,13 +1797,13 @@
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
@@ -1544,48 +1812,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>9</v>
@@ -1596,79 +1876,85 @@
         <v>6</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1676,14 +1962,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -1691,15 +1977,15 @@
       <c r="H11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -1707,9 +1993,9 @@
         <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="15"/>
@@ -1718,21 +2004,27 @@
         <v>8</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="28"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>14</v>
@@ -1741,13 +2033,13 @@
       <c r="F13" s="14"/>
       <c r="G13" s="13"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1755,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -1766,88 +2058,88 @@
         <v>9</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="27" t="s">
-        <v>30</v>
+      <c r="I15" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="27" t="s">
-        <v>32</v>
+      <c r="I16" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>13</v>
@@ -1855,98 +2147,104 @@
       <c r="H17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="25" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="13"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="J19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="29" t="s">
-        <v>214</v>
+      <c r="I20" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1954,14 +2252,14 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>12</v>
@@ -1969,69 +2267,69 @@
       <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="25" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2047,10 +2345,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>5</v>
@@ -2064,7 +2362,7 @@
       <c r="H24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2074,28 +2372,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="27"/>
+        <v>143</v>
+      </c>
+      <c r="I25" s="25"/>
       <c r="J25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2103,31 +2401,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>10</v>
@@ -2136,192 +2434,237 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="36">
+        <v>2</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="37">
+        <v>2</v>
+      </c>
+      <c r="I27" s="38">
+        <v>2</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="39">
+        <v>2</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40">
+        <v>27</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="14">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="15">
-        <v>2</v>
-      </c>
-      <c r="I27" s="27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>86</v>
+      <c r="D28" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="43">
         <v>5</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="15">
         <v>5</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="25">
         <v>5</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="L28" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="44">
+        <v>5</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="13"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="I29" s="25"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>89</v>
+      <c r="B30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="43">
         <v>6</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="15">
         <v>6</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="25">
         <v>6</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>50</v>
+      <c r="L30" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="44">
+        <v>6</v>
+      </c>
+      <c r="O30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>195</v>
+      <c r="I31" s="25"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="I32" s="25"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>160</v>
+      <c r="B33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>21</v>
+      <c r="F33" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
@@ -2329,35 +2672,47 @@
       <c r="H33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="J33" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="L33" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>156</v>
+      <c r="B34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>154</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="14" t="s">
-        <v>22</v>
+      <c r="F34" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>7</v>
@@ -2365,66 +2720,66 @@
       <c r="H34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>144</v>
+      <c r="B35" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="I35" s="25"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>13</v>
@@ -2432,22 +2787,22 @@
       <c r="F37" s="14"/>
       <c r="G37" s="13"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="27"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>14</v>
@@ -2455,45 +2810,45 @@
       <c r="F38" s="14"/>
       <c r="G38" s="13"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="27"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="13"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="27"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>12</v>
@@ -2501,22 +2856,22 @@
       <c r="F40" s="14"/>
       <c r="G40" s="13"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="27"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>7</v>
@@ -2524,168 +2879,168 @@
       <c r="F41" s="14"/>
       <c r="G41" s="13"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="27"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="27"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="13"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="27"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="13"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="27"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="13"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="27"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="13"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="27"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="13"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="27"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="13"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="27"/>
+      <c r="I48" s="25"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
@@ -2694,21 +3049,21 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="13"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="27"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
@@ -2717,21 +3072,21 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="13"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="27"/>
+      <c r="I50" s="25"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
@@ -2740,21 +3095,21 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="14"/>
       <c r="G51" s="13"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="27"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -2763,23 +3118,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>58</v>
+        <v>83</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="27"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
@@ -2788,21 +3143,21 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>65</v>
+        <v>91</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="27"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
@@ -2811,13 +3166,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="13">
         <v>2</v>
@@ -2827,7 +3182,7 @@
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="27"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
@@ -2836,21 +3191,21 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="27"/>
+      <c r="I55" s="25"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
@@ -2859,21 +3214,21 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="27"/>
+      <c r="I56" s="25"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
@@ -2882,10 +3237,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -2898,7 +3253,7 @@
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
@@ -2907,10 +3262,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="12">
         <v>2</v>
@@ -2919,11 +3274,11 @@
         <v>4</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="27"/>
+      <c r="I58" s="25"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
@@ -2932,23 +3287,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="12">
         <v>3</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="15"/>
-      <c r="I59" s="27"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
@@ -2957,23 +3312,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="12">
         <v>4</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
@@ -2982,21 +3337,21 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
@@ -3005,10 +3360,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="12">
         <v>6</v>
@@ -3021,7 +3376,7 @@
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="27"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
@@ -3030,10 +3385,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="12">
         <v>7</v>
@@ -3046,7 +3401,7 @@
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="27"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
@@ -3055,35 +3410,35 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="12">
         <v>8</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="15"/>
-      <c r="I64" s="27"/>
+      <c r="I64" s="25"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="12">
         <v>9</v>
@@ -3096,535 +3451,538 @@
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="27"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>91</v>
+        <v>183</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="13"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="27"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>94</v>
+        <v>183</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="13"/>
       <c r="H67" s="15"/>
-      <c r="I67" s="27"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>96</v>
+        <v>183</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
       <c r="G68" s="13"/>
       <c r="H68" s="15"/>
-      <c r="I68" s="27"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
       <c r="G69" s="13"/>
       <c r="H69" s="15"/>
-      <c r="I69" s="27"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>146</v>
+        <v>183</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>207</v>
+        <v>53</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K70" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D71" s="21" t="s">
         <v>183</v>
       </c>
+      <c r="D71" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="E71" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>209</v>
+        <v>93</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>147</v>
+        <v>183</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>210</v>
+        <v>95</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>99</v>
+        <v>183</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>211</v>
+        <v>144</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K73" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>208</v>
+        <v>90</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K74" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="K75" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>98</v>
+        <v>183</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>123</v>
+        <v>183</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
       <c r="G77" s="13"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="27" t="s">
-        <v>29</v>
+      <c r="I77" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>124</v>
+        <v>183</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="13"/>
       <c r="H78" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>158</v>
+        <v>183</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="13"/>
       <c r="H79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>91</v>
+        <v>183</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="13"/>
       <c r="H80" s="15"/>
-      <c r="I80" s="27"/>
+      <c r="I80" s="25"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>94</v>
+        <v>183</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="13"/>
       <c r="H81" s="15"/>
-      <c r="I81" s="27"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>96</v>
+        <v>183</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="13"/>
       <c r="H82" s="15"/>
-      <c r="I82" s="27"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="13"/>
       <c r="H83" s="15"/>
-      <c r="I83" s="27"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>160</v>
+        <v>183</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="13"/>
       <c r="H84" s="15"/>
-      <c r="I84" s="27"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>50</v>
+        <v>183</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E85" s="13">
         <v>0</v>
@@ -3632,22 +3990,22 @@
       <c r="F85" s="14"/>
       <c r="G85" s="13"/>
       <c r="H85" s="15"/>
-      <c r="I85" s="27"/>
+      <c r="I85" s="25"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="E86" s="13">
         <v>9</v>
@@ -3655,52 +4013,89 @@
       <c r="F86" s="14"/>
       <c r="G86" s="13"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="27"/>
+      <c r="I86" s="25"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D87" s="12"/>
       <c r="E87" s="13"/>
       <c r="F87" s="16"/>
       <c r="G87" s="13"/>
       <c r="H87" s="15"/>
-      <c r="I87" s="27" t="s">
-        <v>31</v>
+      <c r="I87" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
@@ -3729,16 +4124,16 @@
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D106" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:J86">
     <sortCondition ref="A2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="M66" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{6078B86D-54E1-4B48-B20D-E8BA710DDF8B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work-src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E040C68-FE59-C24A-B559-AC4152CFC6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681D151-9C7A-D841-825F-D44B66131E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="27240" windowHeight="19840" xr2:uid="{B0D5AA2F-57A6-0240-AB4C-88455F0B20FF}"/>
+    <workbookView xWindow="740" yWindow="1520" windowWidth="30120" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +34,7 @@
     <author>magnus</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7B2A6577-99BB-CF44-B859-3E058986FEDE}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{A4747542-37F0-7244-8123-C4D26CC5D33B}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{AC1C5B73-7DE6-5241-BF79-0FE45B600CCE}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,14 +139,13 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Cryo-EM structure of a human post-catalytic spliceosome (P complex) at 3.0 angstrom
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{E3B4EE78-00C6-6940-B32B-7A08B4B219B7}">
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{A4D40821-BA50-5A4A-9CEF-4D8170799861}">
+    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -210,45 +212,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{500A986F-AFC7-7349-AE96-14997BF6E7E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Magnus:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>conclict marked</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="275">
   <si>
     <t>PRP8</t>
   </si>
@@ -484,9 +453,6 @@
     <t>Ysf3</t>
   </si>
   <si>
-    <t>exon-5</t>
-  </si>
-  <si>
     <t>exon-3</t>
   </si>
   <si>
@@ -859,9 +825,6 @@
     <t>g, n</t>
   </si>
   <si>
-    <t>unknown_unassigned</t>
-  </si>
-  <si>
     <t>b, k</t>
   </si>
   <si>
@@ -926,6 +889,159 @@
   </si>
   <si>
     <t>PRKRIP1</t>
+  </si>
+  <si>
+    <t>e,i</t>
+  </si>
+  <si>
+    <t>6bk8</t>
+  </si>
+  <si>
+    <t>5wsg</t>
+  </si>
+  <si>
+    <t>yCs_5mq0</t>
+  </si>
+  <si>
+    <t>yC_5lj5</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>MUD1</t>
+  </si>
+  <si>
+    <t>SNP1</t>
+  </si>
+  <si>
+    <t>YHC1</t>
+  </si>
+  <si>
+    <t>PRP39</t>
+  </si>
+  <si>
+    <t>PRP42 (MUD16, SNU65)</t>
+  </si>
+  <si>
+    <t>NAM8 (MRE2)</t>
+  </si>
+  <si>
+    <t>SNU56 (MUD10)</t>
+  </si>
+  <si>
+    <t>LUC7 (EPE1, EXM2)</t>
+  </si>
+  <si>
+    <t>SNU71</t>
+  </si>
+  <si>
+    <t>RSE1 (SAP130)</t>
+  </si>
+  <si>
+    <t>CUS1</t>
+  </si>
+  <si>
+    <t>PRP11 (PRP10, RNA11)</t>
+  </si>
+  <si>
+    <t>PRP21 (SPP91)</t>
+  </si>
+  <si>
+    <t>b, s</t>
+  </si>
+  <si>
+    <t>d, v</t>
+  </si>
+  <si>
+    <t>e, w</t>
+  </si>
+  <si>
+    <t>f, x</t>
+  </si>
+  <si>
+    <t>g, y</t>
+  </si>
+  <si>
+    <t>h, t</t>
+  </si>
+  <si>
+    <t>i, u</t>
+  </si>
+  <si>
+    <t>yPre_6g90</t>
+  </si>
+  <si>
+    <t>grey51</t>
+  </si>
+  <si>
+    <t>grey53</t>
+  </si>
+  <si>
+    <t>grey54</t>
+  </si>
+  <si>
+    <t>grey55</t>
+  </si>
+  <si>
+    <t>grey56</t>
+  </si>
+  <si>
+    <t>grey57</t>
+  </si>
+  <si>
+    <t>grey58</t>
+  </si>
+  <si>
+    <t>grey59</t>
+  </si>
+  <si>
+    <t>grey61</t>
+  </si>
+  <si>
+    <t>grey62</t>
+  </si>
+  <si>
+    <t>grey63</t>
+  </si>
+  <si>
+    <t>grey64</t>
+  </si>
+  <si>
+    <t>grey65</t>
+  </si>
+  <si>
+    <t>grey66</t>
+  </si>
+  <si>
+    <t>grey67</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yE_6n7r</t>
+  </si>
+  <si>
+    <t>PRP40</t>
+  </si>
+  <si>
+    <t>STO1 (CBC1, CBP80, GCR3, SUT1)</t>
+  </si>
+  <si>
+    <t>CBC2 (CBP20, MUD13, SAE1)</t>
+  </si>
+  <si>
+    <t>yE_6n7p</t>
+  </si>
+  <si>
+    <t>grey69</t>
+  </si>
+  <si>
+    <t>grey71</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1054,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1021,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,24 +1146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,8 +1167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1081,11 +1184,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1094,38 +1197,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1133,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,70 +1290,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1585,11 +1648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0E72E8-F810-6348-9EC2-EDEFECB8AF9D}">
-  <dimension ref="A1:P105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,57 +1673,78 @@
     <col min="11" max="11" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="H1" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K1" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1691,8 +1778,11 @@
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1716,8 +1806,11 @@
       <c r="I3" s="25"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1749,8 +1842,11 @@
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1758,14 +1854,14 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>22</v>
@@ -1780,8 +1876,11 @@
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1789,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
@@ -1811,53 +1910,68 @@
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="61" t="s">
+      <c r="O7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="61" t="s">
+      <c r="P7" s="37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1883,13 +1997,16 @@
         <v>24</v>
       </c>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -1922,8 +2039,14 @@
       <c r="O9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1953,8 +2076,11 @@
       <c r="K10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1984,8 +2110,11 @@
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2012,16 +2141,19 @@
       <c r="O12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="P12" s="38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -2039,7 +2171,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2061,8 +2193,11 @@
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2076,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
@@ -2087,13 +2222,16 @@
         <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="U15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2107,7 +2245,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
@@ -2118,18 +2256,24 @@
         <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -2156,13 +2300,16 @@
       <c r="K17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
@@ -2181,15 +2328,18 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>65</v>
@@ -2199,14 +2349,14 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>25</v>
@@ -2215,12 +2365,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>71</v>
@@ -2230,21 +2380,24 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="15"/>
       <c r="I20" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2276,8 +2429,11 @@
       <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2309,13 +2465,16 @@
       <c r="K22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>71</v>
@@ -2336,8 +2495,11 @@
       <c r="K23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2371,13 +2533,16 @@
       <c r="K24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>72</v>
@@ -2387,11 +2552,11 @@
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="1" t="s">
@@ -2401,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2416,7 +2581,7 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>26</v>
@@ -2433,356 +2598,412 @@
       <c r="K26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="T26" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+    </row>
+    <row r="27" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="43">
         <v>2</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="43">
         <v>2</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="44">
         <v>2</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="45">
         <v>2</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="P27" s="45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="Q27" s="45">
+        <v>2</v>
+      </c>
+      <c r="S27" s="45">
+        <v>2</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46">
         <v>27</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="50">
         <v>5</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="50">
         <v>5</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="51">
         <v>5</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="44" t="s">
+      <c r="M28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="52">
         <v>5</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="O28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
+      <c r="Q28" s="52">
+        <v>5</v>
+      </c>
+      <c r="S28" s="52">
+        <v>5</v>
+      </c>
+      <c r="T28" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46">
         <v>28</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46">
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="50">
         <v>6</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="50">
         <v>6</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="51">
         <v>6</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="52">
         <v>6</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="54" t="s">
+      <c r="P30" s="52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41" t="s">
+      <c r="Q30" s="52">
+        <v>6</v>
+      </c>
+      <c r="S30" s="52">
+        <v>6</v>
+      </c>
+      <c r="T30" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="15" t="s">
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="32" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41" t="s">
+      <c r="I31" s="51"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="S31" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="D32" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="33" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46">
         <v>30</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" s="28" t="s">
+      <c r="J33" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" s="28" t="s">
+      <c r="L33" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="28" t="s">
+      <c r="N33" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="55" t="s">
+      <c r="P33" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40">
+      <c r="Q33" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="S33" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="W33" s="52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46">
         <v>31</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="D34" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+    </row>
+    <row r="35" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46">
         <v>32</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-    </row>
-    <row r="36" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
-        <v>33</v>
-      </c>
-      <c r="B36" s="47" t="s">
+      <c r="B35" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="S35" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="13"/>
@@ -2791,21 +3012,21 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="13"/>
@@ -2814,21 +3035,21 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="13"/>
@@ -2837,21 +3058,21 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="13"/>
@@ -2860,21 +3081,21 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="13"/>
@@ -2883,21 +3104,21 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -2906,21 +3127,21 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="13"/>
@@ -2929,21 +3150,21 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="13"/>
@@ -2952,21 +3173,21 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="13"/>
@@ -2975,21 +3196,21 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="13"/>
@@ -2998,21 +3219,21 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="13"/>
@@ -3021,21 +3242,21 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="13"/>
@@ -3044,21 +3265,21 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="13"/>
@@ -3067,70 +3288,70 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="14"/>
       <c r="G50" s="13"/>
       <c r="H50" s="15"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="15"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>29</v>
+        <v>171</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="15"/>
@@ -3138,22 +3359,24 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="13"/>
+      <c r="E53" s="13">
+        <v>2</v>
+      </c>
       <c r="F53" s="14" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="15"/>
@@ -3161,24 +3384,22 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E54" s="13"/>
       <c r="F54" s="14" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="15"/>
@@ -3186,9 +3407,9 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>86</v>
@@ -3197,11 +3418,11 @@
         <v>57</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="14" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="15"/>
@@ -3209,22 +3430,24 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
       <c r="F56" s="14" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="15"/>
@@ -3232,24 +3455,24 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D57" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="15"/>
@@ -3257,24 +3480,24 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D58" s="12">
-        <v>2</v>
-      </c>
-      <c r="E58" s="13">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="15"/>
@@ -3282,24 +3505,24 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="15"/>
@@ -3307,24 +3530,22 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="12">
-        <v>4</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>92</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E60" s="13"/>
       <c r="F60" s="14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="15"/>
@@ -3332,22 +3553,24 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="12">
+        <v>6</v>
+      </c>
+      <c r="E61" s="13">
         <v>5</v>
       </c>
-      <c r="E61" s="13"/>
       <c r="F61" s="14" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="15"/>
@@ -3355,24 +3578,24 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D62" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="15"/>
@@ -3380,24 +3603,24 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="12">
-        <v>7</v>
-      </c>
-      <c r="E63" s="13">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="15"/>
@@ -3405,68 +3628,72 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="12">
-        <v>8</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E64" s="13">
+        <v>6</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="15"/>
       <c r="I64" s="25"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="12">
-        <v>9</v>
-      </c>
-      <c r="E65" s="13">
-        <v>6</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="13"/>
       <c r="H65" s="15"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
@@ -3474,25 +3701,22 @@
       <c r="H66" s="15"/>
       <c r="I66" s="25"/>
       <c r="J66" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="M66" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
@@ -3500,22 +3724,22 @@
       <c r="H67" s="15"/>
       <c r="I67" s="25"/>
       <c r="J67" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -3523,210 +3747,292 @@
       <c r="H68" s="15"/>
       <c r="I68" s="25"/>
       <c r="J68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="13"/>
+      <c r="E69" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="F69" s="14"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="25"/>
+      <c r="G69" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>202</v>
+      </c>
       <c r="J69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T69" t="s">
+        <v>134</v>
+      </c>
+      <c r="U69" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="V69" t="s">
+        <v>13</v>
+      </c>
+      <c r="W69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="I70" s="27" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T70" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="V70" t="s">
+        <v>22</v>
+      </c>
+      <c r="W70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>168</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K71" s="21" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T71" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="U71" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="V71" t="s">
+        <v>23</v>
+      </c>
+      <c r="W71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T72" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="U72" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="V72" t="s">
+        <v>47</v>
+      </c>
+      <c r="W72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T73" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="U73" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="V73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="K74" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T74" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="U74" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="V74" t="s">
+        <v>14</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>166</v>
@@ -3739,57 +4045,61 @@
         <v>145</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="T75" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="U75" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="V75" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>167</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E76" s="13"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="J76" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K76" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>122</v>
@@ -3797,81 +4107,77 @@
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="15"/>
+      <c r="H77" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I77" s="25" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="13"/>
       <c r="H78" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
@@ -3881,20 +4187,22 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="F81" s="14"/>
       <c r="G81" s="13"/>
       <c r="H81" s="15"/>
@@ -3902,21 +4210,21 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="13"/>
@@ -3925,21 +4233,21 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="13"/>
@@ -3948,21 +4256,21 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="13"/>
@@ -3971,21 +4279,21 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E85" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="13"/>
@@ -3994,146 +4302,458 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="13">
-        <v>9</v>
-      </c>
-      <c r="F86" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="13"/>
       <c r="H86" s="15"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
+        <v>126</v>
+      </c>
+      <c r="U86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>203</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>213</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="L87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D88" s="7"/>
       <c r="L88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="P89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="U90" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="L89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="P90" t="s">
+      <c r="V90" t="s">
+        <v>5</v>
+      </c>
+      <c r="W90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="U91" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="U92" t="s">
+        <v>5</v>
+      </c>
+      <c r="V92" t="s">
+        <v>3</v>
+      </c>
+      <c r="W92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="U93" t="s">
+        <v>6</v>
+      </c>
+      <c r="V93" t="s">
+        <v>7</v>
+      </c>
+      <c r="W93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="U94" t="s">
+        <v>7</v>
+      </c>
+      <c r="V94" t="s">
+        <v>6</v>
+      </c>
+      <c r="W94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="U95" t="s">
+        <v>8</v>
+      </c>
+      <c r="V95" t="s">
+        <v>8</v>
+      </c>
+      <c r="W95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="U96" t="s">
+        <v>9</v>
+      </c>
+      <c r="V96" t="s">
+        <v>9</v>
+      </c>
+      <c r="W96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="U97" t="s">
+        <v>10</v>
+      </c>
+      <c r="V97" t="s">
+        <v>11</v>
+      </c>
+      <c r="W97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="U98" t="s">
+        <v>12</v>
+      </c>
+      <c r="V98" t="s">
+        <v>10</v>
+      </c>
+      <c r="W98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="U99" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="U100" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="U101" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="U102" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="U103" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="U104" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U105" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U106" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V107" t="s">
+        <v>24</v>
+      </c>
+      <c r="W107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="7"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D105" s="7"/>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="W110" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J86">
+  <sortState ref="A2:J85">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M66" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{6078B86D-54E1-4B48-B20D-E8BA710DDF8B}"/>
+    <hyperlink ref="M65" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work-src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work/spliceosome/PyMOL4Spliceosome/bucket/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681D151-9C7A-D841-825F-D44B66131E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6911A4-95C5-6048-A5D0-8E7FE42E5B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1520" windowWidth="30120" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="6120" windowWidth="29240" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>magnus</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="303">
   <si>
     <t>PRP8</t>
   </si>
@@ -1042,6 +1042,90 @@
   </si>
   <si>
     <t>grey71</t>
+  </si>
+  <si>
+    <t>U5-40K</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>P,p</t>
+  </si>
+  <si>
+    <t>Q,q</t>
+  </si>
+  <si>
+    <t>R, r</t>
+  </si>
+  <si>
+    <t>SmE</t>
+  </si>
+  <si>
+    <t>S, s</t>
+  </si>
+  <si>
+    <t>T, t</t>
+  </si>
+  <si>
+    <t>SmF</t>
+  </si>
+  <si>
+    <t>SmG</t>
+  </si>
+  <si>
+    <t>U, u</t>
+  </si>
+  <si>
+    <t>h3_3jcr</t>
+  </si>
+  <si>
+    <t>Sad1</t>
+  </si>
+  <si>
+    <t>SmB</t>
+  </si>
+  <si>
+    <t>O, o</t>
+  </si>
+  <si>
+    <t>y3_5gan</t>
+  </si>
+  <si>
+    <t>h3_6qw6</t>
+  </si>
+  <si>
+    <t>DDX23</t>
+  </si>
+  <si>
+    <t>Prp28</t>
+  </si>
+  <si>
+    <t>Dim1</t>
+  </si>
+  <si>
+    <t>alt_names_homologs</t>
+  </si>
+  <si>
+    <t>Q6P2Q9,PRPF8,https://www.uniprot.org/uniprot/Q6P2Q9</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5X</t>
+  </si>
+  <si>
+    <t>h3_6qx9</t>
+  </si>
+  <si>
+    <t>pre-mrna</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>h_Bpre_6ah0</t>
   </si>
 </sst>
 </file>
@@ -1649,102 +1733,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="23"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="29" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="W1" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>225</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>226</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>227</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>250</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>268</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1752,3004 +1859,3902 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="M2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
+      <c r="P2" s="25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="T3" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="AA3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="P4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AA4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AA5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="P6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AA6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="N7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="O7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="Q7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="37" t="s">
+      <c r="R7" s="32" t="s">
         <v>23</v>
       </c>
       <c r="T7" s="37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="25" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="T8" t="s">
+      <c r="R8" s="1"/>
+      <c r="AA8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="P9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" t="s">
+      <c r="U9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" t="s">
+      <c r="V9" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="Z9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AA9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="P10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AA10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="P11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AA11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="17" t="s">
+      <c r="O12" s="15"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="O12" s="4" t="s">
+      <c r="R12" s="17"/>
+      <c r="V12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="W12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="1" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="T14" t="s">
+      <c r="O14" s="15"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="AA14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="25" t="s">
+      <c r="O15" s="15"/>
+      <c r="P15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AB15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13" t="s">
+      <c r="M16" s="14"/>
+      <c r="N16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="25" t="s">
+      <c r="O16" s="15"/>
+      <c r="P16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AA16" t="s">
         <v>31</v>
       </c>
-      <c r="U16" t="s">
+      <c r="AB16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="N17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="P17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AA17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="O18" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="V18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="s">
+      <c r="W18" t="s">
         <v>222</v>
       </c>
-      <c r="T18" t="s">
+      <c r="AA18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="P19" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="Q19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="R19" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="27" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="AA20" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="N21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="O21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="P21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T21" t="s">
+      <c r="AA21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="N22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="O22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="P22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AA22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="1" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T23" t="s">
+      <c r="AA23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="M24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="N24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="O24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="P24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T24" t="s">
+      <c r="R24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AA24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="1" t="s">
+      <c r="P25" s="25"/>
+      <c r="Q25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="N26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="O26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="P26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T26" t="s">
+      <c r="AA26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="F27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42">
+        <v>2</v>
+      </c>
+      <c r="K27" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="43">
+      <c r="L27" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="43">
         <v>2</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="N27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="43">
+      <c r="O27" s="43">
         <v>2</v>
       </c>
-      <c r="I27" s="44">
+      <c r="P27" s="44">
         <v>2</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="Q27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="R27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="S27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="T27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="45">
+      <c r="U27" s="45">
         <v>2</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="V27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="45" t="s">
+      <c r="W27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="X27" s="45">
         <v>2</v>
       </c>
-      <c r="S27" s="45">
+      <c r="Z27" s="45">
         <v>2</v>
       </c>
-      <c r="T27" s="45" t="s">
+      <c r="AA27" s="45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <v>27</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="F28" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="G28" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="49">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49">
+        <v>5</v>
+      </c>
+      <c r="K28" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="50">
+      <c r="L28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="50">
         <v>5</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="N28" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="50">
+      <c r="O28" s="50">
         <v>5</v>
       </c>
-      <c r="I28" s="51">
+      <c r="P28" s="51">
         <v>5</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="Q28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="48" t="s">
+      <c r="R28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="52" t="s">
+      <c r="S28" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="T28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="52">
+      <c r="U28" s="52">
         <v>5</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="V28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="W28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="52">
+      <c r="X28" s="52">
         <v>5</v>
       </c>
-      <c r="S28" s="52">
+      <c r="Z28" s="52">
         <v>5</v>
       </c>
-      <c r="T28" s="52" t="s">
+      <c r="AA28" s="52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46">
         <v>28</v>
       </c>
       <c r="B29" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="F29" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="30" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+    </row>
+    <row r="30" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
         <v>29</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="F30" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="G30" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="49">
+        <v>6</v>
+      </c>
+      <c r="J30" s="49">
+        <v>6</v>
+      </c>
+      <c r="K30" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="50">
+      <c r="L30" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="50">
         <v>6</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="N30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="50">
+      <c r="O30" s="50">
         <v>6</v>
       </c>
-      <c r="I30" s="51">
+      <c r="P30" s="51">
         <v>6</v>
       </c>
-      <c r="J30" s="48" t="s">
+      <c r="Q30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="R30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="S30" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="T30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="52">
+      <c r="U30" s="52">
         <v>6</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="V30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="W30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="X30" s="52">
         <v>6</v>
       </c>
-      <c r="S30" s="52">
+      <c r="Z30" s="52">
         <v>6</v>
       </c>
-      <c r="T30" s="52" t="s">
+      <c r="AA30" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="F31" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50" t="s">
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="S31" s="52" t="s">
+      <c r="P31" s="51"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="Z31" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="T31" s="52" t="s">
+      <c r="AA31" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="F32" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="G32" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="49">
+        <v>4</v>
+      </c>
+      <c r="J32" s="49">
+        <v>4</v>
+      </c>
+      <c r="K32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+    </row>
+    <row r="33" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46">
         <v>30</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="F33" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="L33" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="N33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="O33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="P33" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="Q33" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="48" t="s">
+      <c r="R33" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="48" t="s">
+      <c r="S33" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="M33" s="48" t="s">
+      <c r="T33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="48" t="s">
+      <c r="U33" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="V33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="48" t="s">
+      <c r="W33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="48" t="s">
+      <c r="X33" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S33" s="48" t="s">
+      <c r="Z33" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="T33" s="48" t="s">
+      <c r="AA33" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V33" s="52" t="s">
+      <c r="AC33" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="W33" s="52" t="s">
+      <c r="AD33" s="52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
         <v>31</v>
       </c>
       <c r="B34" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="F34" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="N34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="O34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="P34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+    </row>
+    <row r="35" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46">
         <v>32</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="F35" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="S35" s="52">
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="Z35" s="52">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <v>106</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49">
+        <v>1</v>
+      </c>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="AC36" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD36" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="M37" s="14"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="M38" s="14"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="G39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="M39" s="14"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="G40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="M40" s="14"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="M41" s="14"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="G42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="M42" s="14"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="G43" s="12">
+        <v>8</v>
+      </c>
+      <c r="H43" s="12">
+        <v>8</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="M43" s="14"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="G44" s="12">
+        <v>2</v>
+      </c>
+      <c r="H44" s="12">
+        <v>2</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="M44" s="14"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="G45" s="12">
+        <v>3</v>
+      </c>
+      <c r="H45" s="12">
+        <v>3</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="M45" s="14"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12">
+        <v>6</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="M46" s="14"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="G47" s="12">
+        <v>5</v>
+      </c>
+      <c r="H47" s="12">
+        <v>5</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="M47" s="14"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="F48" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="G48" s="12">
+        <v>7</v>
+      </c>
+      <c r="H48" s="12">
+        <v>7</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="M48" s="14"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="G49" s="12">
+        <v>4</v>
+      </c>
+      <c r="H49" s="12">
+        <v>4</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="M49" s="14"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="F50" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="M50" s="14"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="1" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="F52" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="M52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="N52" s="13"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="F53" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="N53" s="13"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="F54" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="13">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13">
         <v>2</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="M54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="N54" s="13"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="F55" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="N55" s="13"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="F56" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14" t="s">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="N56" s="13"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="12">
+      <c r="F57" s="12">
         <v>1</v>
       </c>
-      <c r="E56" s="13">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13">
         <v>1</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="M57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="N57" s="13"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="12">
+      <c r="F58" s="12">
         <v>2</v>
       </c>
-      <c r="E57" s="13">
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="13">
         <v>4</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="M58" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="N58" s="13"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="12">
+      <c r="F59" s="12">
         <v>3</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="M59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="N59" s="13"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="12">
+      <c r="F60" s="12">
         <v>4</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="M60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="N60" s="13"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="12">
+      <c r="F61" s="12">
         <v>5</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14" t="s">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="N61" s="13"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="12">
+      <c r="F62" s="12">
         <v>6</v>
       </c>
-      <c r="E61" s="13">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="13">
         <v>5</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="M62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="N62" s="13"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="12">
+      <c r="F63" s="12">
         <v>7</v>
       </c>
-      <c r="E62" s="13">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="13">
         <v>3</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="M63" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="N63" s="13"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="12">
+      <c r="F64" s="12">
         <v>8</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="M64" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="N64" s="13"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="12">
+      <c r="F65" s="12">
         <v>9</v>
       </c>
-      <c r="E64" s="13">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="13">
         <v>6</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="M65" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="U64" t="s">
+      <c r="N65" s="13"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="AB65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="1" t="s">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="M65" s="30" t="s">
+      <c r="R66" s="1"/>
+      <c r="T66" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="1" t="s">
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="F68" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="1" t="s">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="F69" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="1" t="s">
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="F70" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="G70" s="19"/>
+      <c r="H70" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="13" t="s">
+      <c r="M70" s="14"/>
+      <c r="N70" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="O70" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="27" t="s">
+      <c r="P70" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K69" s="21" t="s">
+      <c r="R70" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="T69" t="s">
+      <c r="AA70" t="s">
         <v>134</v>
       </c>
-      <c r="U69" s="21" t="s">
+      <c r="AB70" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="V69" t="s">
+      <c r="AC70" t="s">
         <v>13</v>
       </c>
-      <c r="W69" t="s">
+      <c r="AD70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="71" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="F71" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="G71" s="19"/>
+      <c r="H71" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="13" t="s">
+      <c r="M71" s="14"/>
+      <c r="N71" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="O71" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="27" t="s">
+      <c r="P71" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K70" s="21" t="s">
+      <c r="R71" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="T70" s="21" t="s">
+      <c r="AA71" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="U70" s="21" t="s">
+      <c r="AB71" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="V70" t="s">
+      <c r="AC71" t="s">
         <v>22</v>
       </c>
-      <c r="W70" t="s">
+      <c r="AD71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="72" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="G72" s="19"/>
+      <c r="H72" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="13" t="s">
+      <c r="M72" s="14"/>
+      <c r="N72" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="O72" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="27" t="s">
+      <c r="P72" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K71" s="21" t="s">
+      <c r="R72" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="T71" s="21" t="s">
+      <c r="AA72" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="U71" s="21" t="s">
+      <c r="AB72" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="V71" t="s">
+      <c r="AC72" t="s">
         <v>23</v>
       </c>
-      <c r="W71" t="s">
+      <c r="AD72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="73" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="F73" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="G73" s="19"/>
+      <c r="H73" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="13" t="s">
+      <c r="M73" s="14"/>
+      <c r="N73" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="O73" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I72" s="27" t="s">
+      <c r="P73" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K72" s="21" t="s">
+      <c r="R73" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="T72" s="21" t="s">
+      <c r="AA73" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="U72" s="21" t="s">
+      <c r="AB73" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="V72" t="s">
+      <c r="AC73" t="s">
         <v>47</v>
       </c>
-      <c r="W72" t="s">
+      <c r="AD73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="74" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="F74" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="13" t="s">
+      <c r="M74" s="14"/>
+      <c r="N74" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="O74" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="27" t="s">
+      <c r="P74" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K73" s="21" t="s">
+      <c r="R74" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="T73" s="21" t="s">
+      <c r="AA74" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="U73" s="21" t="s">
+      <c r="AB74" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="V73" t="s">
+      <c r="AC74" t="s">
         <v>21</v>
       </c>
-      <c r="W73" t="s">
+      <c r="AD74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="75" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="F75" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="G75" t="s">
+        <v>277</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="13" t="s">
+      <c r="M75" s="14"/>
+      <c r="N75" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="O75" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="I74" s="27" t="s">
+      <c r="P75" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="Q75" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K74" s="21" t="s">
+      <c r="R75" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="T74" s="21" t="s">
+      <c r="AA75" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="U74" s="21" t="s">
+      <c r="AB75" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="V74" t="s">
+      <c r="AC75" t="s">
         <v>14</v>
       </c>
-      <c r="W74" t="s">
+      <c r="AD75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="76" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="F76" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="G76" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="13" t="s">
+      <c r="M76" s="14"/>
+      <c r="N76" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="O76" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I75" s="27" t="s">
+      <c r="P76" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="J75" s="20" t="s">
+      <c r="Q76" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K75" s="21" t="s">
+      <c r="R76" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="T75" s="21" t="s">
+      <c r="AA76" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="U75" s="21" t="s">
+      <c r="AB76" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="V75" t="s">
+      <c r="AC76" t="s">
         <v>20</v>
       </c>
-      <c r="W75" t="s">
+      <c r="AD76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="F77" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="25" t="s">
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1" t="s">
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="F78" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="15" t="s">
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="P78" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1" t="s">
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="15" t="s">
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I78" s="25" t="s">
+      <c r="P79" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1" t="s">
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="F80" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="F81" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="F82" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="M82" s="14"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="F83" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="M83" s="14"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="F84" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="M84" s="14"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="F85" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="13">
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="13">
         <v>0</v>
       </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="M85" s="14"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="F86" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="13">
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="13">
         <v>9</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="M86" s="14"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="25" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="T86" t="s">
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="AA87" t="s">
         <v>126</v>
       </c>
-      <c r="U86" t="s">
+      <c r="AB87" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="88" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B88" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="L87" t="s">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="S88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="89" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B89" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="L88" t="s">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="S89" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="90" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B90" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="P89" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="W90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="91" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B91" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="U90" t="s">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="AB91" t="s">
         <v>1</v>
       </c>
-      <c r="V90" t="s">
+      <c r="AC91" t="s">
         <v>5</v>
       </c>
-      <c r="W90" t="s">
+      <c r="AD91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="92" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B92" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="7"/>
-      <c r="U91" t="s">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="AB92" t="s">
         <v>3</v>
       </c>
-      <c r="V91" t="s">
+      <c r="AC92" t="s">
         <v>1</v>
       </c>
-      <c r="W91" t="s">
+      <c r="AD92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="93" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B93" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="U92" t="s">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="AB93" t="s">
         <v>5</v>
       </c>
-      <c r="V92" t="s">
+      <c r="AC93" t="s">
         <v>3</v>
       </c>
-      <c r="W92" t="s">
+      <c r="AD93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="94" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B94" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D93" s="7"/>
-      <c r="U93" t="s">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="AB94" t="s">
         <v>6</v>
       </c>
-      <c r="V93" t="s">
+      <c r="AC94" t="s">
         <v>7</v>
       </c>
-      <c r="W93" t="s">
+      <c r="AD94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="95" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B95" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="U94" t="s">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="AB95" t="s">
         <v>7</v>
       </c>
-      <c r="V94" t="s">
+      <c r="AC95" t="s">
         <v>6</v>
       </c>
-      <c r="W94" t="s">
+      <c r="AD95" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="96" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B96" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="U95" t="s">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="AB96" t="s">
         <v>8</v>
       </c>
-      <c r="V95" t="s">
+      <c r="AC96" t="s">
         <v>8</v>
       </c>
-      <c r="W95" t="s">
+      <c r="AD96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="97" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B97" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="U96" t="s">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="AB97" t="s">
         <v>9</v>
       </c>
-      <c r="V96" t="s">
+      <c r="AC97" t="s">
         <v>9</v>
       </c>
-      <c r="W96" t="s">
+      <c r="AD97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="98" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B98" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="U97" t="s">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="AB98" t="s">
         <v>10</v>
       </c>
-      <c r="V97" t="s">
+      <c r="AC98" t="s">
         <v>11</v>
       </c>
-      <c r="W97" t="s">
+      <c r="AD98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="99" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B99" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="U98" t="s">
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="AB99" t="s">
         <v>12</v>
       </c>
-      <c r="V98" t="s">
+      <c r="AC99" t="s">
         <v>10</v>
       </c>
-      <c r="W98" t="s">
+      <c r="AD99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="100" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B100" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="7"/>
-      <c r="U99" s="21" t="s">
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="AB100" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="101" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B101" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="U100" s="21" t="s">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="AB101" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="102" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B102" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D101" s="7"/>
-      <c r="U101" s="21" t="s">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="AB102" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="103" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B103" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="U102" s="21" t="s">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="AB103" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="104" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B104" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="U103" s="21" t="s">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="AB104" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="105" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B105" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D104" s="7"/>
-      <c r="U104" s="21" t="s">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="AB105" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="106" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B106" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="U105" s="21" t="s">
+      <c r="AB106" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="107" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B107" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="U106" s="21" t="s">
+      <c r="AB107" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="108" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="V107" t="s">
+      <c r="AC108" t="s">
         <v>24</v>
       </c>
-      <c r="W107" t="s">
+      <c r="AD108" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W108" t="s">
+      <c r="AD109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W109" t="s">
+      <c r="AD110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="W110" t="s">
+      <c r="AD111" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="112" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="30"/>
+      <c r="E114" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J114" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="K114" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>117</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>118</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>119</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>120</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>121</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:J85">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M65" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T66" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C114" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work/spliceosome/PyMOL4Spliceosome/bucket/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6911A4-95C5-6048-A5D0-8E7FE42E5B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1DBEF1-CCB1-5344-BC77-0A1370E9D689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="6120" windowWidth="29240" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="11440" windowWidth="32340" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="R32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="390">
   <si>
     <t>PRP8</t>
   </si>
@@ -372,12 +372,6 @@
     <t>skyblue</t>
   </si>
   <si>
-    <t>slate</t>
-  </si>
-  <si>
-    <t>deepblue</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>sand</t>
   </si>
   <si>
@@ -606,9 +597,6 @@
     <t>PRP22</t>
   </si>
   <si>
-    <t>U5_SmRNP</t>
-  </si>
-  <si>
     <t>PRP18</t>
   </si>
   <si>
@@ -750,21 +738,9 @@
     <t>SPP381</t>
   </si>
   <si>
-    <t>chain</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>grey50</t>
   </si>
   <si>
@@ -792,9 +768,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>S2_Bact_5gm6</t>
   </si>
   <si>
@@ -1047,9 +1020,6 @@
     <t>U5-40K</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>P,p</t>
   </si>
   <si>
@@ -1080,9 +1050,6 @@
     <t>h3_3jcr</t>
   </si>
   <si>
-    <t>Sad1</t>
-  </si>
-  <si>
     <t>SmB</t>
   </si>
   <si>
@@ -1092,18 +1059,9 @@
     <t>y3_5gan</t>
   </si>
   <si>
-    <t>h3_6qw6</t>
-  </si>
-  <si>
     <t>DDX23</t>
   </si>
   <si>
-    <t>Prp28</t>
-  </si>
-  <si>
-    <t>Dim1</t>
-  </si>
-  <si>
     <t>alt_names_homologs</t>
   </si>
   <si>
@@ -1116,23 +1074,326 @@
     <t>5X</t>
   </si>
   <si>
-    <t>h3_6qx9</t>
-  </si>
-  <si>
     <t>pre-mrna</t>
   </si>
   <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>h_Bpre_6ah0</t>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>RBM42</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>in human</t>
+  </si>
+  <si>
+    <t>violetBlue</t>
+  </si>
+  <si>
+    <t>SART1, hSART-1</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>lightsteelblue</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>cornflowerblue</t>
+  </si>
+  <si>
+    <t>5J</t>
+  </si>
+  <si>
+    <t>palecyan</t>
+  </si>
+  <si>
+    <t>5O</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>tv_yellow</t>
+  </si>
+  <si>
+    <t>lightorange</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>yelloworange</t>
+  </si>
+  <si>
+    <t>lemonchiffon</t>
+  </si>
+  <si>
+    <t>U5_Sm_ring</t>
+  </si>
+  <si>
+    <t>51, 52, 53,  5b, 5e, 5f, 5g</t>
+  </si>
+  <si>
+    <t>U4_Sm_ring</t>
+  </si>
+  <si>
+    <t>62, 63, 64, 65, 66, 67,68</t>
+  </si>
+  <si>
+    <t>Lsm_ring</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>SNRNP27_27K</t>
+  </si>
+  <si>
+    <t>41,  42, 43, 4b, 4e, 4f, 4g</t>
+  </si>
+  <si>
+    <t>hBpre_6QX9</t>
+  </si>
+  <si>
+    <t>PRP28</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
+    <t>U1_Sm_ring</t>
+  </si>
+  <si>
+    <t>11, 12,13,1b,1e,1f,1g</t>
+  </si>
+  <si>
+    <t>U1A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>U170k</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>U1C</t>
+  </si>
+  <si>
+    <t>U1 snRNP</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>U2 snRNP</t>
+  </si>
+  <si>
+    <t>SF3B1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>SF3B3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>SF3B2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>SF3B4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>PHF5A</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>SF3A3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>SF3A1</t>
+  </si>
+  <si>
+    <t>SF3A2</t>
+  </si>
+  <si>
+    <t>U2A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>U2B</t>
+  </si>
+  <si>
+    <t>SF3B5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>U2_Sm_ring</t>
+  </si>
+  <si>
+    <t>21, 22, 23, 2b, 2e, 2f, 2g</t>
+  </si>
+  <si>
+    <t>62, 63, 64, 65, 66, 67, 68</t>
+  </si>
+  <si>
+    <t>Prp4Kinase</t>
+  </si>
+  <si>
+    <t>mediumpurple</t>
+  </si>
+  <si>
+    <t>tv_green</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>greencyan</t>
+  </si>
+  <si>
+    <t>limegreen</t>
+  </si>
+  <si>
+    <t>limon</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>warmpink</t>
+  </si>
+  <si>
+    <t>thistle</t>
+  </si>
+  <si>
+    <t>lavenderblush</t>
+  </si>
+  <si>
+    <t>hB_6AHD</t>
+  </si>
+  <si>
+    <t>FBP21</t>
+  </si>
+  <si>
+    <t>B proteins</t>
+  </si>
+  <si>
+    <t>PPIH</t>
+  </si>
+  <si>
+    <t>mistyrose</t>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>MFAP1</t>
+  </si>
+  <si>
+    <t>UBL5</t>
+  </si>
+  <si>
+    <t>PRPF38A</t>
+  </si>
+  <si>
+    <t>ZMAT2</t>
+  </si>
+  <si>
+    <t>SMU1</t>
+  </si>
+  <si>
+    <t>a,b,c,d,e,f,g</t>
+  </si>
+  <si>
+    <t>U,V,P,Q,R,S,T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i,j,k,l,m,n,h</t>
+  </si>
+  <si>
+    <t>q,r,s,t,x,y,z</t>
+  </si>
+  <si>
+    <t>SF3B6</t>
+  </si>
+  <si>
+    <t>hBpre_6AH0</t>
+  </si>
+  <si>
+    <t>grey40</t>
+  </si>
+  <si>
+    <t>G and resi 144</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>G and resi \-30-\-1</t>
+  </si>
+  <si>
+    <t>h3_6QW6</t>
+  </si>
+  <si>
+    <t>DIM1</t>
+  </si>
+  <si>
+    <t>Thioredoxin-like protein 4A, DIM1, TXNL4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1219,6 +1480,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1258,31 +1537,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1300,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1393,19 +1652,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,6 +1664,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1733,24 +1988,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD119"/>
+  <dimension ref="A1:AD149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="5" customWidth="1"/>
@@ -1759,99 +2019,99 @@
     <col min="18" max="18" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="A1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>194</v>
-      </c>
       <c r="S1" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="X1" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="31" t="s">
+      <c r="Y1" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="Z1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" t="s">
         <v>219</v>
       </c>
-      <c r="W1" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="X1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>228</v>
-      </c>
       <c r="AB1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AC1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AD1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1859,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
@@ -1870,16 +2130,16 @@
       <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="13" t="s">
@@ -1907,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1915,20 +2175,21 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="12"/>
+      <c r="H3" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1952,16 +2213,14 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16" t="s">
         <v>26</v>
@@ -1985,7 +2244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1993,19 +2252,17 @@
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="13"/>
       <c r="M5" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>22</v>
@@ -2024,7 +2281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2032,16 +2289,14 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
       <c r="N6" s="13" t="s">
@@ -2063,7 +2318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="37" customFormat="1">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -2073,11 +2328,9 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>8</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -2127,7 +2380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2135,16 +2388,14 @@
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13" t="s">
@@ -2162,24 +2413,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14" t="s">
         <v>24</v>
@@ -2212,7 +2461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2220,16 +2469,14 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14" t="s">
         <v>30</v>
@@ -2251,7 +2498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2259,16 +2506,14 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14" t="s">
         <v>32</v>
@@ -2290,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2300,11 +2545,9 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>13</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -2331,24 +2574,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
@@ -2359,7 +2600,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2367,16 +2608,14 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
       <c r="N14" s="13" t="s">
@@ -2390,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2398,18 +2637,16 @@
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="13" t="s">
@@ -2420,16 +2657,16 @@
         <v>29</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2437,18 +2674,16 @@
         <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="13" t="s">
@@ -2459,10 +2694,10 @@
         <v>31</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AA16" t="s">
         <v>31</v>
@@ -2471,26 +2706,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="13"/>
       <c r="M17" s="14" t="s">
         <v>23</v>
@@ -2514,24 +2747,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
       <c r="N18" s="13"/>
@@ -2543,42 +2774,40 @@
         <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AA18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="4" customFormat="1" ht="34">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>25</v>
@@ -2587,44 +2816,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="13"/>
       <c r="M20" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="15"/>
       <c r="P20" s="27" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2632,16 +2859,14 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="13"/>
       <c r="M21" s="14" t="s">
         <v>22</v>
@@ -2665,7 +2890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2673,16 +2898,14 @@
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="13"/>
       <c r="M22" s="14" t="s">
         <v>47</v>
@@ -2706,24 +2929,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="13"/>
       <c r="M23" s="14" t="s">
         <v>48</v>
@@ -2741,7 +2962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2749,20 +2970,24 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="H24" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>294</v>
+      </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="L24" s="13" t="s">
         <v>5</v>
       </c>
@@ -2788,31 +3013,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="13"/>
       <c r="M25" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P25" s="25"/>
       <c r="Q25" s="1" t="s">
@@ -2822,7 +3045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2830,19 +3053,17 @@
         <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="13"/>
       <c r="M26" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26" s="13" t="s">
         <v>26</v>
@@ -2863,31 +3084,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39">
+    <row r="27" spans="1:30" s="45" customFormat="1">
+      <c r="A27" s="41">
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>328</v>
+      </c>
       <c r="E27" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>32</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42">
+      <c r="I27" s="42">
         <v>2</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="42" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="43">
@@ -2933,457 +3156,456 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
+    <row r="28" spans="1:30" s="45" customFormat="1">
+      <c r="A28" s="39">
         <v>27</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="G28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="49">
+      <c r="H28" s="42">
         <v>5</v>
       </c>
-      <c r="J28" s="49">
+      <c r="I28" s="42">
         <v>5</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="J28" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="K28" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="50">
+      <c r="L28" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="43">
         <v>5</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="50">
+      <c r="O28" s="43">
         <v>5</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="44">
         <v>5</v>
       </c>
-      <c r="Q28" s="48" t="s">
+      <c r="Q28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="52" t="s">
+      <c r="S28" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="T28" s="52" t="s">
+      <c r="T28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="52">
+      <c r="U28" s="45">
         <v>5</v>
       </c>
-      <c r="V28" s="52" t="s">
+      <c r="V28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="W28" s="52" t="s">
+      <c r="W28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="X28" s="52">
+      <c r="X28" s="45">
         <v>5</v>
       </c>
-      <c r="Z28" s="52">
+      <c r="Z28" s="45">
         <v>5</v>
       </c>
-      <c r="AA28" s="52" t="s">
+      <c r="AA28" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+    <row r="29" spans="1:30" s="45" customFormat="1">
+      <c r="A29" s="39">
+        <v>29</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="42">
+        <v>6</v>
+      </c>
+      <c r="I29" s="42">
+        <v>6</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="43">
+        <v>6</v>
+      </c>
+      <c r="N29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-    </row>
-    <row r="30" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
-        <v>29</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="O29" s="43">
+        <v>6</v>
+      </c>
+      <c r="P29" s="44">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="49">
+      <c r="T29" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="45">
         <v>6</v>
       </c>
-      <c r="J30" s="49">
+      <c r="V29" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="45">
         <v>6</v>
       </c>
-      <c r="K30" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="50">
+      <c r="Z29" s="45">
         <v>6</v>
       </c>
-      <c r="N30" s="50" t="s">
+      <c r="AA29" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="50">
-        <v>6</v>
-      </c>
-      <c r="P30" s="51">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" s="52" t="s">
+    </row>
+    <row r="30" spans="1:30" s="45" customFormat="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="Z30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="45" customFormat="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="42">
+        <v>4</v>
+      </c>
+      <c r="I31" s="42">
+        <v>4</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:30" s="45" customFormat="1">
+      <c r="A32" s="39">
+        <v>30</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="T32" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC32" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD32" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="45" customFormat="1">
+      <c r="A33" s="39">
+        <v>31</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="U30" s="52">
-        <v>6</v>
-      </c>
-      <c r="V30" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="W30" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="X30" s="52">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="52">
-        <v>6</v>
-      </c>
-      <c r="AA30" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50" t="s">
+      <c r="N33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="Z31" s="52" t="s">
+      <c r="O33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA31" s="52" t="s">
+      <c r="P33" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="49">
-        <v>4</v>
-      </c>
-      <c r="J32" s="49">
-        <v>4</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-    </row>
-    <row r="33" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
-        <v>30</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="R33" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="S33" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="T33" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" s="48" t="s">
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+    </row>
+    <row r="34" spans="1:30" s="45" customFormat="1">
+      <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="V33" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="W33" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="X33" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z33" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA33" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC33" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD33" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
-        <v>31</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-    </row>
-    <row r="35" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
-        <v>32</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="Z35" s="52">
+      <c r="B34" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="Z34" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
+    <row r="35" spans="1:30" s="45" customFormat="1">
+      <c r="A35" s="41">
         <v>106</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49">
+      <c r="B35" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42">
         <v>1</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="AC36" s="52" t="s">
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="AC35" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AD36" s="52" t="s">
+      <c r="AD35" s="45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="45" customFormat="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>302</v>
+      </c>
       <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="L37" s="13" t="s">
         <v>13</v>
       </c>
@@ -3394,28 +3616,32 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="H38" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="L38" s="13" t="s">
         <v>14</v>
       </c>
@@ -3426,28 +3652,32 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="H39" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>296</v>
+      </c>
       <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="L39" s="13" t="s">
         <v>21</v>
       </c>
@@ -3458,28 +3688,32 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="H40" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>299</v>
+      </c>
       <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="L40" s="13" t="s">
         <v>12</v>
       </c>
@@ -3490,26 +3724,25 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="H41" s="22"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="L41" s="13" t="s">
         <v>7</v>
       </c>
@@ -3520,28 +3753,30 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="H42" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="I42" s="22"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="L42" s="13" t="s">
         <v>20</v>
       </c>
@@ -3552,30 +3787,28 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+      <c r="F43" s="12">
+        <v>8</v>
       </c>
       <c r="G43" s="12">
         <v>8</v>
       </c>
-      <c r="H43" s="12">
-        <v>8</v>
-      </c>
-      <c r="I43" s="12"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="13"/>
@@ -3584,30 +3817,28 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>97</v>
+        <v>174</v>
+      </c>
+      <c r="F44" s="12">
+        <v>2</v>
       </c>
       <c r="G44" s="12">
         <v>2</v>
       </c>
-      <c r="H44" s="12">
-        <v>2</v>
-      </c>
-      <c r="I44" s="12"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="22"/>
       <c r="L44" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="13"/>
@@ -3616,30 +3847,28 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="F45" s="12">
+        <v>3</v>
       </c>
       <c r="G45" s="12">
         <v>3</v>
       </c>
-      <c r="H45" s="12">
-        <v>3</v>
-      </c>
-      <c r="I45" s="12"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="13"/>
@@ -3648,28 +3877,26 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12">
+        <v>174</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
         <v>6</v>
       </c>
-      <c r="I46" s="12"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="13"/>
@@ -3678,28 +3905,26 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>96</v>
+        <v>174</v>
+      </c>
+      <c r="F47" s="12">
+        <v>5</v>
       </c>
       <c r="G47" s="12">
         <v>5</v>
       </c>
-      <c r="H47" s="12">
-        <v>5</v>
-      </c>
-      <c r="I47" s="12"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="13" t="s">
         <v>48</v>
       </c>
@@ -3710,30 +3935,28 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>121</v>
+        <v>174</v>
+      </c>
+      <c r="F48" s="12">
+        <v>7</v>
       </c>
       <c r="G48" s="12">
         <v>7</v>
       </c>
-      <c r="H48" s="12">
-        <v>7</v>
-      </c>
-      <c r="I48" s="12"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="13"/>
@@ -3742,28 +3965,26 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>122</v>
+        <v>174</v>
+      </c>
+      <c r="F49" s="12">
+        <v>4</v>
       </c>
       <c r="G49" s="12">
         <v>4</v>
       </c>
-      <c r="H49" s="12">
-        <v>4</v>
-      </c>
-      <c r="I49" s="12"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="13" t="s">
         <v>49</v>
       </c>
@@ -3774,26 +3995,34 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="18">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="46"/>
       <c r="E50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="H50" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>25</v>
+      </c>
       <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="48">
+        <v>9</v>
+      </c>
       <c r="L50" s="13" t="s">
         <v>22</v>
       </c>
@@ -3804,52 +4033,48 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>157</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
       <c r="N51" s="13"/>
       <c r="O51" s="15"/>
       <c r="P51" s="25"/>
       <c r="Q51" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="15" t="s">
         <v>31</v>
       </c>
@@ -3862,27 +4087,25 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>171</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="13"/>
       <c r="M53" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="15"/>
@@ -3890,24 +4113,22 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="13">
         <v>2</v>
       </c>
@@ -3920,27 +4141,25 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>173</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="13"/>
       <c r="M55" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N55" s="13"/>
       <c r="O55" s="15"/>
@@ -3948,27 +4167,25 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N56" s="13"/>
       <c r="O56" s="15"/>
@@ -3976,24 +4193,22 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="12">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="13">
         <v>1</v>
       </c>
@@ -4006,29 +4221,27 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="12">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="13">
         <v>4</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="15"/>
@@ -4036,24 +4249,22 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="12">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="13" t="s">
         <v>32</v>
       </c>
@@ -4066,26 +4277,24 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="12">
-        <v>4</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M60" s="14" t="s">
         <v>11</v>
@@ -4096,24 +4305,22 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="12">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F61" s="12"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="K61" s="22"/>
       <c r="L61" s="13"/>
       <c r="M61" s="14" t="s">
         <v>31</v>
@@ -4124,24 +4331,22 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="12">
-        <v>6</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="13">
         <v>5</v>
       </c>
@@ -4154,24 +4359,22 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="12">
-        <v>7</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="13">
         <v>3</v>
       </c>
@@ -4184,24 +4387,22 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="12">
-        <v>8</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="13" t="s">
         <v>30</v>
       </c>
@@ -4214,24 +4415,22 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="12">
-        <v>9</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F65" s="12"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="13">
         <v>6</v>
       </c>
@@ -4247,24 +4446,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>89</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
       <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
+      <c r="K66" s="49"/>
       <c r="L66" s="13"/>
       <c r="M66" s="14"/>
       <c r="N66" s="13"/>
@@ -4275,27 +4472,25 @@
       </c>
       <c r="R66" s="1"/>
       <c r="T66" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>92</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
       <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="K67" s="49"/>
       <c r="L67" s="13"/>
       <c r="M67" s="14"/>
       <c r="N67" s="13"/>
@@ -4306,24 +4501,22 @@
       </c>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>94</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="K68" s="49"/>
       <c r="L68" s="13"/>
       <c r="M68" s="14"/>
       <c r="N68" s="13"/>
@@ -4334,24 +4527,22 @@
       </c>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>143</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F69" s="19"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
       <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
+      <c r="K69" s="49"/>
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
       <c r="N69" s="13"/>
@@ -4362,50 +4553,48 @@
       </c>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="I70" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
       <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="48"/>
       <c r="L70" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M70" s="14"/>
       <c r="N70" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P70" s="27" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R70" s="21" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AA70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AB70" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AC70" t="s">
         <v>13</v>
@@ -4414,50 +4603,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I71" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
       <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="48"/>
       <c r="L71" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P71" s="27" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R71" s="21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AA71" s="21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AB71" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AC71" t="s">
         <v>22</v>
@@ -4466,50 +4653,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="48"/>
       <c r="L72" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M72" s="14"/>
       <c r="N72" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P72" s="27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R72" s="21" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AA72" s="21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AB72" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AC72" t="s">
         <v>23</v>
@@ -4518,50 +4703,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
+      <c r="K73" s="48"/>
       <c r="L73" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M73" s="14"/>
       <c r="N73" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P73" s="27" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R73" s="21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AA73" s="21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AB73" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AC73" t="s">
         <v>47</v>
@@ -4570,52 +4753,50 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G74" t="s">
-        <v>279</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="I74" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F74" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
       <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="48"/>
       <c r="L74" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M74" s="14"/>
       <c r="N74" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P74" s="27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R74" s="21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA74" s="21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AB74" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AC74" t="s">
         <v>21</v>
@@ -4624,52 +4805,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" t="s">
-        <v>277</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I75" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F75" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
       <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="48"/>
       <c r="L75" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M75" s="14"/>
       <c r="N75" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P75" s="27" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R75" s="21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AA75" s="21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AB75" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AC75" t="s">
         <v>14</v>
@@ -4678,52 +4857,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="I76" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="F76" t="s">
+        <v>268</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
       <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="48"/>
       <c r="L76" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M76" s="14"/>
       <c r="N76" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P76" s="27" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R76" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AA76" s="21" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AB76" s="21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AC76" t="s">
         <v>20</v>
@@ -4732,24 +4909,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>121</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F77" s="19"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
       <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
+      <c r="K77" s="49"/>
       <c r="L77" s="13"/>
       <c r="M77" s="14"/>
       <c r="N77" s="13"/>
@@ -4762,88 +4937,82 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>122</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F78" s="19"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
+      <c r="K78" s="49"/>
       <c r="L78" s="13"/>
       <c r="M78" s="14"/>
       <c r="N78" s="13"/>
       <c r="O78" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>155</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
       <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
+      <c r="K79" s="49"/>
       <c r="L79" s="13"/>
       <c r="M79" s="14"/>
       <c r="N79" s="13"/>
       <c r="O79" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P79" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>89</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
       <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
+      <c r="K80" s="49"/>
       <c r="L80" s="13"/>
       <c r="M80" s="14"/>
       <c r="N80" s="13"/>
@@ -4852,24 +5021,22 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>92</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F81" s="19"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
       <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
+      <c r="K81" s="49"/>
       <c r="L81" s="13"/>
       <c r="M81" s="14"/>
       <c r="N81" s="13"/>
@@ -4878,26 +5045,24 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>94</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F82" s="19"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
       <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
+      <c r="K82" s="49"/>
       <c r="L82" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="13"/>
@@ -4906,26 +5071,24 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>143</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F83" s="19"/>
       <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
       <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
+      <c r="K83" s="49"/>
       <c r="L83" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="13"/>
@@ -4934,24 +5097,22 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="F84" s="19"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
       <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
+      <c r="K84" s="49"/>
       <c r="L84" s="13" t="s">
         <v>29</v>
       </c>
@@ -4962,24 +5123,22 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>49</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
       <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
+      <c r="K85" s="49"/>
       <c r="L85" s="13">
         <v>0</v>
       </c>
@@ -4990,24 +5149,22 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F86" s="19"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
       <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
+      <c r="K86" s="49"/>
       <c r="L86" s="13">
         <v>9</v>
       </c>
@@ -5018,24 +5175,24 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="12"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="K87" s="22"/>
       <c r="L87" s="13"/>
       <c r="M87" s="16"/>
       <c r="N87" s="13"/>
@@ -5046,96 +5203,96 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="AA87" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB87" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
       <c r="E88" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="50"/>
       <c r="S88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
       <c r="E89" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="50"/>
       <c r="S89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="50"/>
       <c r="W90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
       <c r="E91" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="50"/>
       <c r="AB91" t="s">
         <v>1</v>
       </c>
@@ -5146,24 +5303,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
       <c r="E92" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+      <c r="K92" s="50"/>
       <c r="AB92" t="s">
         <v>3</v>
       </c>
@@ -5174,24 +5331,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
       <c r="E93" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
       <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="K93" s="50"/>
       <c r="AB93" t="s">
         <v>5</v>
       </c>
@@ -5202,24 +5359,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="18">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
       <c r="E94" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="50"/>
       <c r="AB94" t="s">
         <v>6</v>
       </c>
@@ -5230,24 +5387,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="18">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="50"/>
       <c r="AB95" t="s">
         <v>7</v>
       </c>
@@ -5258,24 +5415,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="18">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
       <c r="E96" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="K96" s="50"/>
       <c r="AB96" t="s">
         <v>8</v>
       </c>
@@ -5286,24 +5443,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="18">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
+      <c r="K97" s="50"/>
       <c r="AB97" t="s">
         <v>9</v>
       </c>
@@ -5314,24 +5471,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="18">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
       <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="K98" s="50"/>
       <c r="AB98" t="s">
         <v>10</v>
       </c>
@@ -5342,24 +5499,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="18">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
       <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+      <c r="K99" s="50"/>
       <c r="AB99" t="s">
         <v>12</v>
       </c>
@@ -5370,181 +5527,181 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="18">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="50"/>
       <c r="AB100" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="18">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="K101" s="50"/>
       <c r="AB101" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="18">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="K102" s="50"/>
       <c r="AB102" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="18">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
+      <c r="K103" s="50"/>
       <c r="AB103" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="18">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
       <c r="E104" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
       <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
+      <c r="K104" s="50"/>
       <c r="AB104" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="18">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
       <c r="E105" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="50"/>
       <c r="AB105" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="18">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
       <c r="E106" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AB106" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="18">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
       <c r="E107" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AB107" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="18">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
       <c r="E108" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AC108" t="s">
         <v>24</v>
@@ -5553,208 +5710,783 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AD109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AD111" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="18">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K112" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="18">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C113" s="21"/>
+        <v>388</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>389</v>
+      </c>
       <c r="D113" s="21"/>
       <c r="E113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G113" t="s">
+        <v>201</v>
+      </c>
+      <c r="F113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="H113" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G114" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21" t="s">
-        <v>298</v>
+      <c r="G114" s="21"/>
+      <c r="H114" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I114" s="48" t="s">
+        <v>284</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="K114" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K114" s="48"/>
+    </row>
+    <row r="115" spans="1:11" ht="18">
       <c r="A115" s="1">
         <v>117</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
       <c r="E115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G115" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G116" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>119</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G117" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="18">
       <c r="A118" s="1">
         <v>120</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
       <c r="E118" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F118" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="K118" s="48"/>
+    </row>
+    <row r="119" spans="1:11" ht="18">
       <c r="A119" s="1">
         <v>121</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
       <c r="E119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G119" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="48"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>122</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
+      <c r="E120" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>123</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="E121" t="s">
+        <v>290</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>124</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E122" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>125</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E123" t="s">
+        <v>288</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>126</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>127</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E125" t="s">
+        <v>364</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>128</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E126" t="s">
+        <v>364</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>129</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E127" t="s">
+        <v>363</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>130</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E128" t="s">
+        <v>362</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>131</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E129" t="s">
+        <v>357</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>132</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="K130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>133</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" t="s">
+        <v>361</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K131" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>134</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E132" t="s">
+        <v>360</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K132" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>135</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E133" t="s">
+        <v>359</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K133" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>136</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E134" t="s">
+        <v>53</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>137</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>138</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" t="s">
+        <v>358</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>139</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E137" t="s">
+        <v>357</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>140</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" t="s">
+        <v>357</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E139" t="s">
+        <v>356</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K139" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>142</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" t="s">
+        <v>54</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>143</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" t="s">
+        <v>355</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>144</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E142" t="s">
+        <v>175</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>145</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143" t="s">
+        <v>369</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>146</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E144" t="s">
+        <v>370</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>147</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" t="s">
+        <v>364</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>148</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" t="s">
+        <v>363</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>149</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>150</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E148" t="s">
+        <v>306</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>151</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E149" t="s">
+        <v>356</v>
+      </c>
+      <c r="K149" s="4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="T66" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C114" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
+    <hyperlink ref="B121" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work/src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C906BFE-6149-5C4C-8DB3-6F05BC651C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55570C-CB9A-584D-8024-9CD5560E7C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2800" windowWidth="26300" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="502">
   <si>
     <t>PRP8</t>
   </si>
@@ -348,9 +348,6 @@
     <t>LEA1</t>
   </si>
   <si>
-    <t>Msl1</t>
-  </si>
-  <si>
     <t>Intron</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>Cus1</t>
   </si>
   <si>
-    <t>Ysf3</t>
-  </si>
-  <si>
     <t>PRP45</t>
   </si>
   <si>
@@ -504,12 +498,6 @@
     <t>CDC40 (PRP17, SLU4, XRS2)</t>
   </si>
   <si>
-    <t>cwc23</t>
-  </si>
-  <si>
-    <t>SPP382 (CCF8, NTR1)</t>
-  </si>
-  <si>
     <t>NTR2</t>
   </si>
   <si>
@@ -642,33 +630,12 @@
     <t>SNU13</t>
   </si>
   <si>
-    <t>LSM8</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
-    <t>LSM2</t>
-  </si>
-  <si>
-    <t>LSM3</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
-    <t>LSM6</t>
-  </si>
-  <si>
-    <t>LSM5</t>
-  </si>
-  <si>
-    <t>LSM7</t>
-  </si>
-  <si>
-    <t>LSM4</t>
-  </si>
-  <si>
     <t>SNU66</t>
   </si>
   <si>
@@ -969,12 +936,6 @@
     <t>PRP40</t>
   </si>
   <si>
-    <t>STO1 (CBC1, CBP80, GCR3, SUT1)</t>
-  </si>
-  <si>
-    <t>CBC2 (CBP20, MUD13, SAE1)</t>
-  </si>
-  <si>
     <t>yE_6n7p</t>
   </si>
   <si>
@@ -1425,9 +1386,6 @@
     <t>CWC2_RBM22</t>
   </si>
   <si>
-    <t>PRP16_DHX38</t>
-  </si>
-  <si>
     <t>RBM8A</t>
   </si>
   <si>
@@ -1728,13 +1686,43 @@
     <t>EMB2765</t>
   </si>
   <si>
-    <t>HSP73</t>
-  </si>
-  <si>
     <t>2,3,4,5,7,6, 8</t>
   </si>
   <si>
-    <t>LMS2-8</t>
+    <t>MSL1</t>
+  </si>
+  <si>
+    <t>PRP16</t>
+  </si>
+  <si>
+    <t>DHX38</t>
+  </si>
+  <si>
+    <t>YSF3</t>
+  </si>
+  <si>
+    <t>CWC23</t>
+  </si>
+  <si>
+    <t>SPP382</t>
+  </si>
+  <si>
+    <t>CCF8, NTR1</t>
+  </si>
+  <si>
+    <t>STO1</t>
+  </si>
+  <si>
+    <t>CBC1, CBP80, GCR3, SUT1</t>
+  </si>
+  <si>
+    <t>CBC2</t>
+  </si>
+  <si>
+    <t>CBP20, MUD13, SAE1</t>
+  </si>
+  <si>
+    <t>LSM2-8</t>
   </si>
 </sst>
 </file>
@@ -2309,13 +2297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL185"/>
+  <dimension ref="A1:AL177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2345,118 +2333,118 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="U1" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="AD1" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AJ1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -2467,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -2479,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>1</v>
@@ -2544,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>5</v>
@@ -2553,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="20" t="s">
@@ -2589,7 +2577,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2640,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2650,13 +2638,13 @@
       <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>22</v>
@@ -2686,7 +2674,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -2700,7 +2688,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>25</v>
@@ -2732,14 +2720,14 @@
         <v>34</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -2817,10 +2805,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2851,18 +2839,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2922,7 +2910,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2964,7 +2952,7 @@
       <c r="AK10" s="47"/>
       <c r="AL10" s="40"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2972,10 +2960,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3021,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1">
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3032,7 +3020,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3079,7 +3067,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3103,10 +3091,10 @@
         <v>9</v>
       </c>
       <c r="AG13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3114,7 +3102,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3123,24 +3111,24 @@
       <c r="K14" s="10"/>
       <c r="L14" s="20"/>
       <c r="M14" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="22" t="s">
         <v>29</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD14" t="s">
         <v>29</v>
@@ -3151,10 +3139,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3163,24 +3151,24 @@
       <c r="K15" s="10"/>
       <c r="L15" s="20"/>
       <c r="M15" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="22" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AC15" t="s">
         <v>31</v>
@@ -3194,13 +3182,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
@@ -3227,10 +3215,10 @@
         <v>13</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC16" t="s">
         <v>13</v>
@@ -3251,10 +3239,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>402</v>
+        <v>491</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3274,29 +3265,29 @@
         <v>32</v>
       </c>
       <c r="Y17" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AC17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="4" customFormat="1">
+    <row r="18" spans="1:38" s="4" customFormat="1" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -3306,17 +3297,17 @@
       <c r="L18" s="20"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>25</v>
@@ -3334,21 +3325,21 @@
       <c r="AJ18"/>
       <c r="AL18"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3358,36 +3349,36 @@
       <c r="L19" s="20"/>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="19" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="AH19" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="47"/>
       <c r="AL19" s="40" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="18">
@@ -3398,13 +3389,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3457,10 +3448,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -3470,13 +3461,13 @@
       <c r="L21" s="20"/>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="13" t="s">
         <v>21</v>
@@ -3499,10 +3490,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -3512,11 +3503,11 @@
       <c r="L22" s="20"/>
       <c r="M22" s="11"/>
       <c r="N22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="25"/>
@@ -3527,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="AC22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG22" t="s">
         <v>13</v>
@@ -3536,7 +3527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="18">
+    <row r="23" spans="1:38">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3544,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>3</v>
@@ -3556,10 +3547,10 @@
         <v>5</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="20" t="s">
@@ -3604,10 +3595,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -3617,14 +3608,14 @@
       <c r="L24" s="20"/>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="1" t="s">
@@ -3640,10 +3631,10 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3651,10 +3642,10 @@
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3664,13 +3655,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>26</v>
@@ -3712,10 +3703,10 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -3807,7 +3798,7 @@
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>10</v>
@@ -3894,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="40" customFormat="1" ht="18">
+    <row r="28" spans="1:38" s="40" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3905,7 +3896,7 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -4003,7 +3994,7 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -4034,18 +4025,18 @@
       <c r="AK29" s="4"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:38" s="40" customFormat="1" ht="18">
+    <row r="30" spans="1:38" s="40" customFormat="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>20</v>
@@ -4080,20 +4071,20 @@
       <c r="AK30" s="4"/>
       <c r="AL30"/>
     </row>
-    <row r="31" spans="1:38" s="40" customFormat="1">
+    <row r="31" spans="1:38" s="40" customFormat="1" ht="18">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="36" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -4126,13 +4117,13 @@
         <v>11</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="T31" s="36" t="s">
         <v>7</v>
       </c>
       <c r="U31" s="36" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="V31" s="36" t="s">
         <v>9</v>
@@ -4147,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="Z31" s="36" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AB31" s="36" t="s">
         <v>11</v>
@@ -4156,10 +4147,10 @@
         <v>11</v>
       </c>
       <c r="AE31" s="40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AF31" s="40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG31" s="40" t="s">
         <v>9</v>
@@ -4168,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AJ31" s="40" t="s">
         <v>9</v>
@@ -4185,13 +4176,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -4199,7 +4190,7 @@
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M32" s="38"/>
       <c r="N32" s="38" t="s">
@@ -4222,10 +4213,10 @@
       </c>
       <c r="T32" s="36"/>
       <c r="AG32" s="37" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AH32" s="37" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AI32"/>
       <c r="AJ32"/>
@@ -4234,18 +4225,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="40" customFormat="1" ht="18">
+    <row r="33" spans="1:38" s="40" customFormat="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -4274,15 +4265,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -4316,13 +4307,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
@@ -4330,7 +4321,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="38"/>
@@ -4340,7 +4331,7 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="AG35" s="37" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AI35"/>
       <c r="AJ35"/>
@@ -4352,20 +4343,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="20" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="20" t="s">
@@ -4387,10 +4378,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>12</v>
@@ -4399,10 +4390,10 @@
         <v>8</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="20" t="s">
@@ -4424,10 +4415,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>9</v>
@@ -4436,10 +4427,10 @@
         <v>12</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="20" t="s">
@@ -4456,15 +4447,15 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:38" ht="18">
+    <row r="39" spans="1:38">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>13</v>
@@ -4473,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="20" t="s">
@@ -4498,10 +4489,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10" t="s">
@@ -4523,15 +4514,15 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:38" ht="18">
+    <row r="41" spans="1:38">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>11</v>
@@ -4540,7 +4531,7 @@
         <v>13</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="10"/>
@@ -4560,21 +4551,36 @@
     </row>
     <row r="42" spans="1:38" ht="18">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="1" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="11"/>
+      <c r="H42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="43">
+        <v>9</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="N42" s="12"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -4585,13 +4591,13 @@
     </row>
     <row r="43" spans="1:38">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -4605,18 +4611,20 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="1"/>
+      <c r="S43" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="18">
+    <row r="44" spans="1:38">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4624,8 +4632,12 @@
       <c r="J44" s="20"/>
       <c r="K44" s="10"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
+      <c r="M44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="13"/>
@@ -4635,13 +4647,13 @@
     </row>
     <row r="45" spans="1:38">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>166</v>
+        <v>82</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -4650,7 +4662,9 @@
       <c r="K45" s="10"/>
       <c r="L45" s="20"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
+      <c r="N45" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="13"/>
@@ -4660,13 +4674,13 @@
     </row>
     <row r="46" spans="1:38">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -4674,8 +4688,12 @@
       <c r="J46" s="20"/>
       <c r="K46" s="10"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
+      <c r="M46" s="11">
+        <v>2</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="13"/>
@@ -4685,13 +4703,13 @@
     </row>
     <row r="47" spans="1:38">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -4700,7 +4718,9 @@
       <c r="K47" s="10"/>
       <c r="L47" s="20"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="12"/>
+      <c r="N47" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="13"/>
@@ -4710,13 +4730,13 @@
     </row>
     <row r="48" spans="1:38">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -4725,7 +4745,9 @@
       <c r="K48" s="10"/>
       <c r="L48" s="20"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
+      <c r="N48" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="13"/>
@@ -4733,39 +4755,28 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+        <v>80</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="43">
+      <c r="H49" s="10"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="12"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="13"/>
@@ -4773,15 +4784,15 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -4789,26 +4800,28 @@
       <c r="J50" s="20"/>
       <c r="K50" s="10"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
+      <c r="M50" s="11">
+        <v>4</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -4816,11 +4829,11 @@
       <c r="J51" s="20"/>
       <c r="K51" s="10"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>29</v>
+      <c r="M51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -4829,15 +4842,15 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -4845,9 +4858,11 @@
       <c r="J52" s="20"/>
       <c r="K52" s="10"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="11"/>
+      <c r="M52" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="N52" s="12" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -4856,15 +4871,15 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:30" ht="18">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -4872,11 +4887,9 @@
       <c r="J53" s="20"/>
       <c r="K53" s="10"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="11">
-        <v>2</v>
-      </c>
+      <c r="M53" s="11"/>
       <c r="N53" s="12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -4885,15 +4898,15 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4901,9 +4914,11 @@
       <c r="J54" s="20"/>
       <c r="K54" s="10"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="11"/>
+      <c r="M54" s="11">
+        <v>5</v>
+      </c>
       <c r="N54" s="12" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -4912,12 +4927,12 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>53</v>
@@ -4928,9 +4943,11 @@
       <c r="J55" s="20"/>
       <c r="K55" s="10"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="11"/>
+      <c r="M55" s="11">
+        <v>3</v>
+      </c>
       <c r="N55" s="12" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -4939,15 +4956,15 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:32">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4955,11 +4972,11 @@
       <c r="J56" s="20"/>
       <c r="K56" s="10"/>
       <c r="L56" s="20"/>
-      <c r="M56" s="11">
-        <v>1</v>
+      <c r="M56" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -4968,15 +4985,15 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:30" ht="18">
+    <row r="57" spans="1:32">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4985,10 +5002,10 @@
       <c r="K57" s="10"/>
       <c r="L57" s="20"/>
       <c r="M57" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
@@ -4996,708 +5013,714 @@
       <c r="R57" s="22"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="1:30" ht="18">
+      <c r="AD57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="12"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="22"/>
-      <c r="S58" s="1"/>
+      <c r="S58" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="T58" s="1"/>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="V58" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>495</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="22"/>
-      <c r="S59" s="1"/>
+      <c r="S59" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:32">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="44"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="N60" s="12"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="1"/>
+      <c r="S60" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:32">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="11">
-        <v>5</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="12"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="1"/>
+      <c r="S61" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:32" ht="18">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="11">
-        <v>3</v>
-      </c>
-      <c r="N62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="1:30">
+        <v>155</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N62" s="12"/>
+      <c r="O62" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R62" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD62" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="18">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="43"/>
       <c r="M63" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-    </row>
-    <row r="64" spans="1:30">
+        <v>144</v>
+      </c>
+      <c r="N63" s="12"/>
+      <c r="O63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R63" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T63" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC63" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD63" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="18">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N64" s="12"/>
+      <c r="O64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R64" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T64" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC64" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD64" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" ht="18">
+      <c r="A65" s="1">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="N65" s="12"/>
+      <c r="O65" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R65" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T65" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC65" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD65" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" ht="18">
+      <c r="A66" s="1">
         <v>72</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="11">
-        <v>6</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="AD64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" s="1"/>
-      <c r="V65" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="G66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="N66" s="12"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="22"/>
+      <c r="O66" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R66" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="S66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="1:38">
+        <v>103</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC66" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD66" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" ht="18">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="G67" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="N67" s="12"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T67" s="1"/>
+      <c r="O67" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="R67" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="S67" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T67" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD67" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:38" ht="18">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="G68" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="N68" s="12"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T68" s="1"/>
+      <c r="O68" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R68" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="S68" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T68" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC68" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD68" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:38">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G69" s="17"/>
-      <c r="H69" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="H69" s="17"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="12"/>
-      <c r="O69" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P69" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q69" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R69" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T69" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD69" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" ht="18">
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G70" s="17"/>
-      <c r="H70" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="12"/>
-      <c r="O70" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
       <c r="Q70" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="R70" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T70" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC70" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD70" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="R70" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:38">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G71" s="17"/>
-      <c r="H71" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>384</v>
-      </c>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
       <c r="Q71" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R71" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T71" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC71" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD71" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" ht="18">
+        <v>79</v>
+      </c>
+      <c r="R71" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G72" s="17"/>
-      <c r="H72" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="12"/>
-      <c r="O72" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="R72" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T72" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC72" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD72" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>45</v>
-      </c>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:38">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G73" t="s">
-        <v>258</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="11" t="s">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="12"/>
-      <c r="O73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P73" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R73" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T73" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC73" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD73" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" ht="18">
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:38">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G74" t="s">
-        <v>256</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="43"/>
+        <v>155</v>
+      </c>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N74" s="12"/>
-      <c r="O74" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q74" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="R74" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="S74" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="T74" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC74" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD74" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>14</v>
-      </c>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:38">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" t="s">
-        <v>257</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="43"/>
+        <v>155</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="44"/>
       <c r="M75" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N75" s="12"/>
-      <c r="O75" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="P75" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q75" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="R75" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="S75" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="T75" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC75" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD75" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>20</v>
-      </c>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:38">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -5705,31 +5728,26 @@
       <c r="J76" s="44"/>
       <c r="K76" s="17"/>
       <c r="L76" s="44"/>
-      <c r="M76" s="11"/>
+      <c r="M76" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="N76" s="12"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="13"/>
-      <c r="R76" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="R76" s="22"/>
       <c r="S76" s="1"/>
-      <c r="T76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>31</v>
-      </c>
+      <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:38">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -5737,30 +5755,26 @@
       <c r="J77" s="44"/>
       <c r="K77" s="17"/>
       <c r="L77" s="44"/>
-      <c r="M77" s="11"/>
+      <c r="M77" s="11">
+        <v>0</v>
+      </c>
       <c r="N77" s="12"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="R77" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="22"/>
       <c r="S77" s="1"/>
-      <c r="T77" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" ht="18">
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:38">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -5768,259 +5782,255 @@
       <c r="J78" s="44"/>
       <c r="K78" s="17"/>
       <c r="L78" s="44"/>
-      <c r="M78" s="11"/>
+      <c r="M78" s="11">
+        <v>9</v>
+      </c>
       <c r="N78" s="12"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="R78" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="22"/>
       <c r="S78" s="1"/>
-      <c r="T78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH78" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL78" t="s">
-        <v>81</v>
-      </c>
+      <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:38">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="44"/>
+        <v>155</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="20"/>
       <c r="M79" s="11"/>
-      <c r="N79" s="12"/>
+      <c r="N79" s="14"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="13"/>
-      <c r="R79" s="22"/>
+      <c r="R79" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
+      <c r="AC79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:38" ht="18">
       <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-    </row>
-    <row r="81" spans="1:38">
+        <v>155</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="45"/>
+      <c r="U80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" ht="18">
       <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N81" s="12"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-    </row>
-    <row r="82" spans="1:38">
+        <v>181</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="45"/>
+      <c r="U81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" ht="18">
       <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="N82" s="12"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-    </row>
-    <row r="83" spans="1:38">
+        <v>155</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="45"/>
+      <c r="Y82" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" ht="18">
       <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N83" s="12"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="45"/>
+      <c r="AD83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" spans="1:38" ht="18">
       <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="11">
-        <v>0</v>
-      </c>
-      <c r="N84" s="12"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-    </row>
-    <row r="85" spans="1:38">
+        <v>181</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="45"/>
+      <c r="AD84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" ht="18">
       <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="11">
-        <v>9</v>
-      </c>
-      <c r="N85" s="12"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-    </row>
-    <row r="86" spans="1:38">
+        <v>221</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="45"/>
+      <c r="AD85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" ht="18">
       <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="AC86" t="s">
-        <v>116</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="45"/>
       <c r="AD86" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:38" ht="18">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -6028,22 +6038,28 @@
       <c r="J87" s="45"/>
       <c r="K87" s="7"/>
       <c r="L87" s="45"/>
-      <c r="U87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38">
+      <c r="AD87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" ht="18">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -6051,22 +6067,28 @@
       <c r="J88" s="45"/>
       <c r="K88" s="7"/>
       <c r="L88" s="45"/>
-      <c r="U88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38">
+      <c r="AD88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" ht="18">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="1" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -6074,25 +6096,28 @@
       <c r="J89" s="45"/>
       <c r="K89" s="7"/>
       <c r="L89" s="45"/>
-      <c r="Y89" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL89" t="s">
-        <v>6</v>
+      <c r="AD89" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:38" ht="18">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -6101,30 +6126,27 @@
       <c r="K90" s="7"/>
       <c r="L90" s="45"/>
       <c r="AD90" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE90" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AF90" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" ht="18">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -6133,27 +6155,27 @@
       <c r="K91" s="7"/>
       <c r="L91" s="45"/>
       <c r="AD91" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE91" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" ht="18">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="1" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -6161,28 +6183,22 @@
       <c r="J92" s="45"/>
       <c r="K92" s="7"/>
       <c r="L92" s="45"/>
-      <c r="AD92" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38">
+      <c r="AD92" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" ht="18">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -6190,28 +6206,22 @@
       <c r="J93" s="45"/>
       <c r="K93" s="7"/>
       <c r="L93" s="45"/>
-      <c r="AD93" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38">
+      <c r="AD93" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" ht="18">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -6219,28 +6229,22 @@
       <c r="J94" s="45"/>
       <c r="K94" s="7"/>
       <c r="L94" s="45"/>
-      <c r="AD94" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>6</v>
+      <c r="AD94" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="18">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -6248,28 +6252,22 @@
       <c r="J95" s="45"/>
       <c r="K95" s="7"/>
       <c r="L95" s="45"/>
-      <c r="AD95" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38">
+      <c r="AD95" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" ht="18">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -6277,28 +6275,22 @@
       <c r="J96" s="45"/>
       <c r="K96" s="7"/>
       <c r="L96" s="45"/>
-      <c r="AD96" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34">
+      <c r="AD96" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" ht="18">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -6306,220 +6298,204 @@
       <c r="J97" s="45"/>
       <c r="K97" s="7"/>
       <c r="L97" s="45"/>
-      <c r="AD97" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34">
+      <c r="AD97" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" ht="18">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="45"/>
-      <c r="AD98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34">
+        <v>233</v>
+      </c>
+      <c r="AD98" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" ht="18">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="45"/>
+        <v>234</v>
+      </c>
       <c r="AD99" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" ht="18">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="45"/>
-      <c r="AD100" s="19" t="s">
-        <v>23</v>
+        <v>236</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:34">
       <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="45"/>
-      <c r="AD101" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" ht="18">
+      <c r="AF101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="45"/>
-      <c r="AD102" s="19" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:34">
       <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="F103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" ht="18">
+      <c r="A104" s="1">
+        <v>110</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="45"/>
-      <c r="AD103" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="45"/>
-      <c r="AD104" s="19" t="s">
-        <v>26</v>
+        <v>268</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="18">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="19"/>
+        <v>362</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>363</v>
+      </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD105" s="19" t="s">
-        <v>27</v>
+        <v>181</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="J105" s="20" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="18">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD106" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34">
+        <v>290</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J106" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="43"/>
+    </row>
+    <row r="107" spans="1:34" ht="18">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>246</v>
@@ -6528,1562 +6504,1418 @@
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" t="s">
         <v>247</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:34">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF108" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="G108" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:34">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>250</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34">
+        <v>52</v>
+      </c>
+      <c r="G109" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" ht="18">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>251</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
       <c r="F110" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34">
+        <v>276</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" s="19"/>
+      <c r="L110" s="43"/>
+    </row>
+    <row r="111" spans="1:34" ht="18">
       <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>255</v>
+        <v>117</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K111" s="1"/>
-      <c r="L111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG111" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH111" t="s">
-        <v>7</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="43"/>
     </row>
     <row r="112" spans="1:34">
       <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="F112" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G112" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="J112" s="20" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:38">
       <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="J113" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="K113" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F113" t="s">
+        <v>265</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L113" s="43"/>
+      <c r="J113" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="114" spans="1:38">
       <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114" t="s">
-        <v>260</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI114" s="33"/>
+      <c r="AJ114" s="33"/>
+      <c r="AL114" s="4"/>
     </row>
     <row r="115" spans="1:38">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G115" t="s">
-        <v>261</v>
+        <v>284</v>
+      </c>
+      <c r="F115" t="s">
+        <v>264</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:38">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>53</v>
+        <v>501</v>
+      </c>
+      <c r="F116" t="s">
+        <v>286</v>
       </c>
       <c r="G116" t="s">
-        <v>264</v>
+        <v>489</v>
+      </c>
+      <c r="H116" t="s">
+        <v>489</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:38">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J117" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K117" s="19"/>
-      <c r="L117" s="43"/>
+        <v>292</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F117" t="s">
+        <v>338</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="118" spans="1:38">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="43"/>
+        <v>294</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F118" t="s">
+        <v>338</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="119" spans="1:38">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>24</v>
+        <v>296</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F119" t="s">
+        <v>337</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:38" ht="18">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F120" t="s">
-        <v>278</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:38" ht="18">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="F121" t="s">
+        <v>331</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L121" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38">
+      <c r="A122" s="1">
+        <v>128</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L122" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38">
+      <c r="A123" s="1">
+        <v>129</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" t="s">
+        <v>335</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L123" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38">
+      <c r="A124" s="1">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
+        <v>334</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="L124" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38">
+      <c r="A125" s="1">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
+        <v>333</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L125" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK125" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38">
+      <c r="A126" s="1">
+        <v>132</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>50</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG121" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH121" t="s">
-        <v>391</v>
-      </c>
-      <c r="AI121" s="33"/>
-      <c r="AJ121" s="33"/>
-      <c r="AL121" s="4"/>
-    </row>
-    <row r="122" spans="1:38" ht="18">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="123" spans="1:38" ht="18">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F123" t="s">
-        <v>299</v>
-      </c>
-      <c r="G123" t="s">
-        <v>504</v>
-      </c>
-      <c r="H123" t="s">
-        <v>504</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="124" spans="1:38" ht="18">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F124" t="s">
-        <v>351</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="125" spans="1:38" ht="18">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F125" t="s">
-        <v>351</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:38" ht="18">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F126" t="s">
-        <v>350</v>
-      </c>
       <c r="J126" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK126" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:38">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F127" t="s">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK127" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:38">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
+        <v>332</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F128" t="s">
-        <v>344</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="L128" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK128" s="4">
-        <v>1</v>
+      <c r="L128" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK128" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:38">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F129" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="L129" s="4">
-        <v>3</v>
-      </c>
-      <c r="AK129" s="4">
-        <v>3</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL129" s="40"/>
     </row>
     <row r="130" spans="1:38">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F130" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="L130" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK130" s="4">
-        <v>2</v>
-      </c>
+      <c r="L130" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI130" s="40"/>
+      <c r="AJ130" s="40"/>
+      <c r="AK130" s="47"/>
+      <c r="AL130" s="40"/>
     </row>
     <row r="131" spans="1:38">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F131" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L131" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK131" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:38" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F132" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="L132" s="4">
-        <v>6</v>
-      </c>
-      <c r="AK132" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:38" ht="18">
+        <v>326</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL132" s="4"/>
+    </row>
+    <row r="133" spans="1:38">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK133" s="4" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:38">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK134" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:38" ht="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F135" t="s">
-        <v>345</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK135" s="4" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:38">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F136" t="s">
         <v>344</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="L136" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL136" s="40"/>
+        <v>345</v>
+      </c>
     </row>
     <row r="137" spans="1:38">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F137" t="s">
-        <v>344</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG137" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH137" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI137" s="40"/>
-      <c r="AJ137" s="40"/>
-      <c r="AK137" s="47"/>
-      <c r="AL137" s="40"/>
+        <v>338</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:38">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F138" t="s">
-        <v>343</v>
-      </c>
-      <c r="J138" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L138" s="4">
-        <v>7</v>
-      </c>
-      <c r="AK138" s="4">
-        <v>7</v>
+      <c r="L138" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:38">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG139" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH139" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL139" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="L139" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="140" spans="1:38">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>341</v>
       </c>
       <c r="F140" t="s">
-        <v>342</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>13</v>
+        <v>281</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:38">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F141" t="s">
-        <v>167</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>30</v>
+        <v>330</v>
+      </c>
+      <c r="L141" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK141" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:38">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>354</v>
+        <v>381</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="F142" t="s">
-        <v>356</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI142" s="40"/>
+      <c r="AJ142" s="40"/>
+      <c r="AK142" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL142" s="40"/>
     </row>
     <row r="143" spans="1:38">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>354</v>
+        <v>401</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="F143" t="s">
-        <v>357</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>358</v>
+        <v>402</v>
+      </c>
+      <c r="AK143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:38">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>354</v>
+        <v>382</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="F144" t="s">
-        <v>351</v>
-      </c>
-      <c r="L144" s="4">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI144" s="40"/>
+      <c r="AJ144" s="40"/>
+      <c r="AK144" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL144" s="40" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:38">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>354</v>
+        <v>403</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="F145" t="s">
-        <v>350</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>32</v>
+        <v>430</v>
+      </c>
+      <c r="AK145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL145" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:38">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>354</v>
+        <v>383</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
-      </c>
-      <c r="L146" s="4">
-        <v>8</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AG146">
+        <v>1</v>
+      </c>
+      <c r="AK146" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL146" s="33"/>
     </row>
     <row r="147" spans="1:38">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>354</v>
+        <v>406</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>31</v>
+        <v>431</v>
+      </c>
+      <c r="AK147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL147" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:38">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F148" t="s">
-        <v>343</v>
-      </c>
-      <c r="L148" s="4">
-        <v>5</v>
-      </c>
-      <c r="AK148" s="4">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="AG148">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:38">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG149" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH149" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI149" s="40"/>
-      <c r="AJ149" s="40"/>
-      <c r="AK149" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL149" s="40"/>
+        <v>432</v>
+      </c>
+      <c r="AK149" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="150" spans="1:38">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="F150" t="s">
-        <v>416</v>
-      </c>
-      <c r="AK150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL150" t="s">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="AG150">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:38">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="F151" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG151" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH151" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI151" s="40"/>
-      <c r="AJ151" s="40"/>
-      <c r="AK151" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL151" s="40" t="s">
-        <v>494</v>
+        <v>433</v>
+      </c>
+      <c r="AK151" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:38">
       <c r="A152" s="1">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>418</v>
+        <v>471</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="F152" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL152" t="s">
-        <v>3</v>
+        <v>391</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI152" s="40"/>
+      <c r="AJ152" s="40"/>
+      <c r="AK152" s="47"/>
+      <c r="AL152" s="40">
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:38">
       <c r="A153" s="1">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F153" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK153" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F154" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F155" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK155" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F156" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG156" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F153" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG153">
-        <v>1</v>
-      </c>
-      <c r="AK153" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL153" s="33"/>
-    </row>
-    <row r="154" spans="1:38" ht="18">
-      <c r="A154" s="1">
+      <c r="AH156" t="s">
         <v>150</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F154" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL154" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:38" ht="18">
-      <c r="A155" s="1">
-        <v>151</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F155" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:38" ht="18">
-      <c r="A156" s="1">
-        <v>151</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F156" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK156" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:38">
       <c r="A157" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>398</v>
+        <v>415</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG157">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="AK157" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:38">
       <c r="A158" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>422</v>
+        <v>390</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="F158" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK158" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:38" ht="18">
+        <v>393</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH158" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38">
       <c r="A159" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F159" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG159" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH159" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI159" s="40"/>
-      <c r="AJ159" s="40"/>
-      <c r="AK159" s="47"/>
-      <c r="AL159" s="40">
-        <v>7</v>
+        <v>437</v>
+      </c>
+      <c r="AK159" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:38">
       <c r="A160" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AK160" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:38">
       <c r="A161" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="F161" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG161" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH161" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL161">
-        <v>9</v>
+        <v>439</v>
+      </c>
+      <c r="AK161" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:38">
       <c r="A162" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F162" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AK162" s="4" t="s">
-        <v>427</v>
+        <v>109</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:38">
       <c r="A163" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>406</v>
+        <v>423</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="F163" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG163" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH163" t="s">
-        <v>161</v>
+        <v>441</v>
+      </c>
+      <c r="AK163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:38">
       <c r="A164" s="1">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F164" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AK164" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL164" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="1:38" ht="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38">
       <c r="A165" s="1">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>406</v>
+        <v>427</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F165" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG165" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH165" s="4" t="s">
-        <v>116</v>
+        <v>443</v>
+      </c>
+      <c r="AK165" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:38">
       <c r="A166" s="1">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F166" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AK166" s="4" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="AL166" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:38">
       <c r="A167" s="1">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="F167" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AK167" s="4" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="AL167" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:38">
       <c r="A168" s="1">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F168" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AK168" s="4" t="s">
-        <v>112</v>
+        <v>27</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:38">
       <c r="A169" s="1">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F169" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AK169" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:38">
       <c r="A170" s="1">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="F170" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AK170" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL170" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:38">
       <c r="A171" s="1">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F171" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AK171" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:38">
       <c r="A172" s="1">
-        <v>162</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>441</v>
+        <v>170</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="F172" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AK172" s="4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:38">
       <c r="A173" s="1">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F173" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AK173" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL173" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:38">
       <c r="A174" s="1">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F174" t="s">
-        <v>473</v>
-      </c>
-      <c r="AK174" s="4" t="s">
-        <v>24</v>
+        <v>477</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="AL174" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:38">
       <c r="A175" s="1">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F175" t="s">
         <v>474</v>
       </c>
-      <c r="AK175" s="4" t="s">
-        <v>27</v>
+      <c r="F175" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="AL175" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:38">
       <c r="A176" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F176" t="s">
-        <v>475</v>
-      </c>
-      <c r="AK176" s="4" t="s">
-        <v>29</v>
+        <v>479</v>
+      </c>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="F176" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:38">
       <c r="A177" s="1">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F177" t="s">
-        <v>476</v>
-      </c>
-      <c r="AK177" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:38" ht="18">
-      <c r="A178" s="1">
-        <v>169</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F178" t="s">
-        <v>477</v>
-      </c>
-      <c r="AK178" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:38">
-      <c r="A179" s="1">
-        <v>170</v>
-      </c>
-      <c r="B179" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F179" t="s">
-        <v>478</v>
-      </c>
-      <c r="AK179" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:38">
-      <c r="A180" s="1">
-        <v>171</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F180" t="s">
-        <v>479</v>
-      </c>
-      <c r="AK180" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181" spans="1:38">
-      <c r="B181" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:38" ht="18">
-      <c r="B182" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:38">
-      <c r="B183" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-      <c r="F183" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL183" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:38">
-      <c r="B184" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL184" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:38">
-      <c r="B185" s="1" t="s">
-        <v>503</v>
+        <v>483</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL185">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL178">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V65" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C113" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
-    <hyperlink ref="B120" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
-    <hyperlink ref="B152" r:id="rId4" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP200" xr:uid="{0E3742EF-9A4A-474F-9783-FC2EE040C049}"/>
-    <hyperlink ref="B179" r:id="rId5" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:BUD13" xr:uid="{75A88AA6-40F6-DE4A-9C76-EA000DD59DD9}"/>
+    <hyperlink ref="V58" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C106" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
+    <hyperlink ref="B113" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
+    <hyperlink ref="B145" r:id="rId4" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP200" xr:uid="{0E3742EF-9A4A-474F-9783-FC2EE040C049}"/>
+    <hyperlink ref="B172" r:id="rId5" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:BUD13" xr:uid="{75A88AA6-40F6-DE4A-9C76-EA000DD59DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
+++ b/rna_tools/tools/PyMOL4RNA/Spliceosome_PyMOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnus/work/src/rna-tools/rna_tools/tools/PyMOL4RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55570C-CB9A-584D-8024-9CD5560E7C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA499FB4-9DA5-8C4C-81A3-A383B7995352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2800" windowWidth="26300" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2820" windowWidth="26300" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>magnus</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="S31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="511">
   <si>
     <t>PRP8</t>
   </si>
@@ -768,21 +768,12 @@
     <t>O,Q</t>
   </si>
   <si>
-    <t>CWF15_yCWC15</t>
-  </si>
-  <si>
-    <t>Spp42_yPrp8</t>
-  </si>
-  <si>
     <t>6ICZ</t>
   </si>
   <si>
     <t>S6_hP_6icz</t>
   </si>
   <si>
-    <t>SX_pX_3jb9</t>
-  </si>
-  <si>
     <t>hBa_6ff7</t>
   </si>
   <si>
@@ -993,9 +984,6 @@
     <t>alt_names_homologs</t>
   </si>
   <si>
-    <t>Q6P2Q9,PRPF8,https://www.uniprot.org/uniprot/Q6P2Q9</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
@@ -1314,9 +1302,6 @@
     <t>pink</t>
   </si>
   <si>
-    <t>Cwc2 and Ecm2 are fused into hRBM22</t>
-  </si>
-  <si>
     <t>yC_5GMK</t>
   </si>
   <si>
@@ -1723,6 +1708,48 @@
   </si>
   <si>
     <t>LSM2-8</t>
+  </si>
+  <si>
+    <t>Q6P2Q9,PRPF8,https://www.uniprot.org/uniprot/Q6P2Q9, Spp42</t>
+  </si>
+  <si>
+    <t>pombe</t>
+  </si>
+  <si>
+    <t>Spp42</t>
+  </si>
+  <si>
+    <t>CWF15</t>
+  </si>
+  <si>
+    <t>pI_3JB9</t>
+  </si>
+  <si>
+    <t>cwf10, snu114, spef2, SPBC215.12</t>
+  </si>
+  <si>
+    <t>PRP5</t>
+  </si>
+  <si>
+    <t>prp5, cwf1, pi024, SPBP22H7.07</t>
+  </si>
+  <si>
+    <t>CWF17</t>
+  </si>
+  <si>
+    <t>cwf17, SPBC1289.11</t>
+  </si>
+  <si>
+    <t>prp45, cwf13, snw1, SPCC188.11, SPCC584.08</t>
+  </si>
+  <si>
+    <t>CDC5</t>
+  </si>
+  <si>
+    <t>Pre-mRNA-splicing factor cdc5, cdc5, SPAC644.12</t>
+  </si>
+  <si>
+    <t>Cwc2 and Ecm2 are fused into hRBM22, cwf5, ecm2, SPCC550.02c</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1982,6 +2009,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2297,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL177"/>
+  <dimension ref="A1:AM178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2311,143 +2341,148 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="2" customWidth="1"/>
-    <col min="15" max="16" width="12.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="26" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="21" customWidth="1"/>
-    <col min="21" max="33" width="10.83203125" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="12.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="5" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="26" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="21" customWidth="1"/>
+    <col min="22" max="22" width="17.5" style="46" customWidth="1"/>
+    <col min="23" max="34" width="10.83203125" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="AE1" s="9" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="AH1" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AI1" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AM1" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2455,57 +2490,60 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>259</v>
+      <c r="I2" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="U2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="V2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
         <v>1</v>
       </c>
       <c r="AH2" t="s">
@@ -2517,202 +2555,205 @@
       <c r="AJ2" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>1</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AM2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="20" t="s">
+      <c r="J3" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="12"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="12"/>
-      <c r="AC3" t="s">
+      <c r="U3" s="12"/>
+      <c r="AD3" t="s">
         <v>3</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>6</v>
       </c>
       <c r="AH3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AI3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="U4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" t="s">
-        <v>21</v>
+      <c r="AD4" t="s">
+        <v>14</v>
       </c>
       <c r="AH4" t="s">
         <v>21</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AI4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AL4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="S5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>22</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>14</v>
       </c>
       <c r="AH5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AI5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="S6" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="s">
         <v>25</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>12</v>
       </c>
       <c r="AH6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="33" customFormat="1">
+      <c r="AI6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="33" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2720,239 +2761,248 @@
         <v>34</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D7" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="P7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="32" t="s">
         <v>23</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="U7" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="V7" s="46" t="s">
+        <v>129</v>
+      </c>
       <c r="W7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="Y7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="Z7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="33" t="s">
+      <c r="AB7" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="AC7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AD7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AH7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="40" t="s">
+      <c r="AI7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AJ7" s="40" t="s">
+      <c r="AK7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AK7" s="47" t="s">
+      <c r="AL7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="AC8" t="s">
+      <c r="U8" s="1"/>
+      <c r="AD8" t="s">
         <v>6</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18">
+    <row r="9" spans="1:39" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="R9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="S9" s="22" t="s">
         <v>20</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W9" t="s">
+      <c r="U9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s">
         <v>23</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>22</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>20</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>22</v>
       </c>
       <c r="AH9" t="s">
         <v>22</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AI9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AL9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="R10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="S10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>24</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>27</v>
       </c>
       <c r="AH10" t="s">
         <v>27</v>
       </c>
-      <c r="AI10" s="40"/>
+      <c r="AI10" t="s">
+        <v>27</v>
+      </c>
       <c r="AJ10" s="40"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="40"/>
-    </row>
-    <row r="11" spans="1:38" ht="18">
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="40"/>
+    </row>
+    <row r="11" spans="1:39" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2960,56 +3010,56 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>10</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>28</v>
       </c>
       <c r="AH11" t="s">
         <v>28</v>
       </c>
-      <c r="AI11" s="40"/>
+      <c r="AI11" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ11" s="40"/>
-      <c r="AK11" s="47" t="s">
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AL11" s="19" t="s">
+      <c r="AM11" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="12" spans="1:39" s="4" customFormat="1" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3019,369 +3069,379 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="13" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="15" t="s">
+      <c r="R12" s="13"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="X12" s="4" t="s">
+      <c r="U12" s="15"/>
+      <c r="V12" s="46"/>
+      <c r="Y12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y12" s="34" t="s">
+      <c r="Z12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" s="46" t="s">
+      <c r="AH12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AH12" s="46"/>
-      <c r="AI12"/>
+      <c r="AI12" s="46"/>
       <c r="AJ12"/>
-      <c r="AL12"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="AK12"/>
+      <c r="AM12"/>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="Q13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="1"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="1"/>
-      <c r="AC13" t="s">
+      <c r="U13" s="1"/>
+      <c r="AD13" t="s">
         <v>9</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="18">
+    <row r="14" spans="1:39" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="11" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="12"/>
+      <c r="P14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="13"/>
+      <c r="S14" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="U14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="11" t="s">
+      <c r="K15" s="20"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="13"/>
+      <c r="S15" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC15" t="s">
-        <v>31</v>
+      <c r="U15" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="AD15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AE15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>396</v>
+      <c r="C16" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="S16" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="U16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s">
         <v>13</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>24</v>
       </c>
       <c r="AH16" t="s">
         <v>24</v>
       </c>
-      <c r="AI16" s="40"/>
+      <c r="AI16" t="s">
+        <v>24</v>
+      </c>
       <c r="AJ16" s="40"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="40"/>
-    </row>
-    <row r="17" spans="1:38">
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="40"/>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="1"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="1"/>
-      <c r="X17" t="s">
+      <c r="U17" s="1"/>
+      <c r="Y17" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="Z17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD17" t="s">
         <v>44</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="18" spans="1:39" s="4" customFormat="1" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="R18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="24" t="s">
+      <c r="S18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="T18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="U18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AG18" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="V18" s="46"/>
       <c r="AH18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI18"/>
+      <c r="AI18" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ18"/>
-      <c r="AL18"/>
-    </row>
-    <row r="19" spans="1:38" ht="18">
+      <c r="AK18"/>
+      <c r="AM18"/>
+    </row>
+    <row r="19" spans="1:39" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
+      <c r="K19" s="20"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="24" t="s">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC19" s="19" t="s">
+      <c r="U19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD19" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AG19" t="s">
-        <v>380</v>
-      </c>
       <c r="AH19" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI19" s="40"/>
+        <v>375</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>375</v>
+      </c>
       <c r="AJ19" s="40"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="40" t="s">
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="18">
+    <row r="20" spans="1:39" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3389,252 +3449,261 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="Q20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="R20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="S20" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="U20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="s">
         <v>12</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>26</v>
       </c>
       <c r="AH20" t="s">
         <v>26</v>
       </c>
-      <c r="AI20" s="40"/>
+      <c r="AI20" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ20" s="40"/>
-      <c r="AK20" s="47" t="s">
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AL20" s="40" t="s">
+      <c r="AM20" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="P21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="Q21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="R21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="S21" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
+      <c r="K22" s="20"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="U22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="s">
         <v>46</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>13</v>
       </c>
       <c r="AH22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:38">
+      <c r="AI22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="C23" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="42" t="s">
-        <v>269</v>
-      </c>
       <c r="J23" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="22" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="U23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="V23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
         <v>5</v>
       </c>
       <c r="AH23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:38">
+      <c r="AI23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
+      <c r="K24" s="20"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="R24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="S24" s="22"/>
       <c r="T24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AG24" t="s">
-        <v>20</v>
+      <c r="U24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="AH24" t="s">
         <v>20</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AI24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3642,58 +3711,58 @@
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
+      <c r="K25" s="20"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="P25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="Q25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="R25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="22" t="s">
+      <c r="S25" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="U25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="s">
         <v>26</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>11</v>
       </c>
       <c r="AH25" t="s">
         <v>11</v>
       </c>
-      <c r="AI25" s="4"/>
+      <c r="AI25" t="s">
+        <v>11</v>
+      </c>
       <c r="AJ25" s="4"/>
-      <c r="AK25" s="4" t="s">
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AL25" s="4" t="s">
+      <c r="AM25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="40" customFormat="1">
+    <row r="26" spans="1:39" s="40" customFormat="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3702,20 +3771,18 @@
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="37">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37">
         <v>2</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>10</v>
       </c>
       <c r="L26" s="37" t="s">
         <v>10</v>
@@ -3723,71 +3790,74 @@
       <c r="M26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="38">
         <v>2</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="P26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="Q26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="R26" s="38">
         <v>2</v>
       </c>
-      <c r="R26" s="39">
+      <c r="S26" s="39">
         <v>2</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="T26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="40" t="s">
+      <c r="U26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="40" t="s">
+      <c r="W26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="W26" s="40">
+      <c r="X26" s="40">
         <v>2</v>
-      </c>
-      <c r="X26" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="Y26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z26" s="40">
+      <c r="Z26" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="40">
         <v>2</v>
       </c>
-      <c r="AB26" s="40">
+      <c r="AC26" s="40">
         <v>2</v>
       </c>
-      <c r="AC26" s="40" t="s">
+      <c r="AD26" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="AG26" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="AH26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ26">
         <v>2</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>10</v>
       </c>
-      <c r="AK26" s="47" t="s">
+      <c r="AL26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="40" customFormat="1">
+    <row r="27" spans="1:39" s="40" customFormat="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3797,95 +3867,96 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="H27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="I27" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="I27" s="37">
-        <v>5</v>
       </c>
       <c r="J27" s="37">
         <v>5</v>
       </c>
-      <c r="K27" s="37" t="s">
-        <v>3</v>
+      <c r="K27" s="37">
+        <v>5</v>
       </c>
       <c r="L27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="38">
         <v>5</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="P27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="Q27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="R27" s="38">
         <v>5</v>
       </c>
-      <c r="R27" s="39">
+      <c r="S27" s="39">
         <v>5</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>3</v>
       </c>
       <c r="T27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="40" t="s">
+      <c r="U27" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="40" t="s">
+      <c r="W27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="W27" s="40">
+      <c r="X27" s="40">
         <v>5</v>
-      </c>
-      <c r="X27" s="40" t="s">
-        <v>3</v>
       </c>
       <c r="Y27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Z27" s="40">
+      <c r="Z27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="40">
         <v>5</v>
       </c>
-      <c r="AB27" s="40">
+      <c r="AC27" s="40">
         <v>5</v>
       </c>
-      <c r="AC27" s="40" t="s">
+      <c r="AD27" s="40" t="s">
         <v>27</v>
-      </c>
-      <c r="AG27" s="40" t="s">
-        <v>3</v>
       </c>
       <c r="AH27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27">
         <v>5</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>3</v>
       </c>
-      <c r="AK27" s="47" t="s">
+      <c r="AL27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="40" customFormat="1">
+    <row r="28" spans="1:39" s="40" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3895,95 +3966,96 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="H28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="I28" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="I28" s="37">
-        <v>6</v>
       </c>
       <c r="J28" s="37">
         <v>6</v>
       </c>
-      <c r="K28" s="37" t="s">
-        <v>8</v>
+      <c r="K28" s="37">
+        <v>6</v>
       </c>
       <c r="L28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="38">
         <v>6</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="P28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="Q28" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="R28" s="38">
         <v>6</v>
       </c>
-      <c r="R28" s="39">
-        <v>6</v>
-      </c>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="39">
         <v>6</v>
       </c>
       <c r="T28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="U28" s="40" t="s">
+      <c r="U28" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="40" t="s">
+      <c r="W28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="40">
+      <c r="X28" s="40">
         <v>6</v>
-      </c>
-      <c r="X28" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="Y28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="40">
+      <c r="Z28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="40">
         <v>6</v>
       </c>
-      <c r="AB28" s="40">
+      <c r="AC28" s="40">
         <v>6</v>
       </c>
-      <c r="AC28" s="40" t="s">
+      <c r="AD28" s="40" t="s">
         <v>28</v>
-      </c>
-      <c r="AG28" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="AH28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AI28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ28" s="4">
         <v>6</v>
       </c>
-      <c r="AJ28" s="4" t="s">
+      <c r="AK28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AK28" s="47" t="s">
+      <c r="AL28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="40" customFormat="1">
+    <row r="29" spans="1:39" s="40" customFormat="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3993,39 +4065,41 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="38" t="s">
+      <c r="R29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="R29" s="39"/>
-      <c r="S29" s="36"/>
+      <c r="S29" s="39"/>
       <c r="T29" s="36"/>
-      <c r="AB29" s="40" t="s">
-        <v>7</v>
-      </c>
+      <c r="U29" s="36"/>
+      <c r="V29" s="50"/>
       <c r="AC29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AI29"/>
+      <c r="AD29" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="AJ29"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29"/>
-    </row>
-    <row r="30" spans="1:38" s="40" customFormat="1">
+      <c r="AK29"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29"/>
+    </row>
+    <row r="30" spans="1:39" s="40" customFormat="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4035,43 +4109,45 @@
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="H30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="I30" s="37" t="s">
         <v>28</v>
-      </c>
-      <c r="I30" s="37">
-        <v>4</v>
       </c>
       <c r="J30" s="37">
         <v>4</v>
       </c>
-      <c r="K30" s="37" t="s">
-        <v>11</v>
+      <c r="K30" s="37">
+        <v>4</v>
       </c>
       <c r="L30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="M30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="38"/>
+      <c r="N30" s="38" t="s">
+        <v>11</v>
+      </c>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="36"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="39"/>
       <c r="T30" s="36"/>
-      <c r="AI30"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="50"/>
       <c r="AJ30"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30"/>
-    </row>
-    <row r="31" spans="1:38" s="40" customFormat="1" ht="18">
+      <c r="AK30"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30"/>
+    </row>
+    <row r="31" spans="1:39" s="40" customFormat="1" ht="18">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4079,99 +4155,100 @@
         <v>43</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="G31" s="37"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36" t="s">
+        <v>353</v>
+      </c>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37" t="s">
         <v>11</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>9</v>
       </c>
       <c r="L31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="38" t="s">
+      <c r="M31" s="37" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="P31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="Q31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="38" t="s">
+      <c r="R31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="S31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="S31" s="36" t="s">
+      <c r="T31" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="T31" s="36" t="s">
+      <c r="U31" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="36" t="s">
+      <c r="V31" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="V31" s="36" t="s">
+      <c r="W31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="W31" s="36" t="s">
+      <c r="X31" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="X31" s="36" t="s">
-        <v>9</v>
       </c>
       <c r="Y31" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Z31" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB31" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AA31" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="AC31" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="40" t="s">
-        <v>138</v>
+      <c r="AD31" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="AF31" s="40" t="s">
         <v>138</v>
       </c>
       <c r="AG31" s="40" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="AH31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AI31" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ31" s="40" t="s">
+      <c r="AI31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AK31" s="47" t="s">
+      <c r="AJ31" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AL31" s="40" t="s">
+      <c r="AL31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM31" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="40" customFormat="1">
+    <row r="32" spans="1:39" s="40" customFormat="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4181,375 +4258,383 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
+      <c r="L32" s="37"/>
+      <c r="M32" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="P32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="Q32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="R32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="S32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S32" s="36" t="s">
+      <c r="T32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="36"/>
-      <c r="AG32" s="37" t="s">
-        <v>360</v>
-      </c>
+      <c r="U32" s="36"/>
+      <c r="V32" s="50"/>
       <c r="AH32" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI32"/>
+        <v>356</v>
+      </c>
+      <c r="AI32" s="37" t="s">
+        <v>356</v>
+      </c>
       <c r="AJ32"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" t="s">
+      <c r="AK32"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="40" customFormat="1">
+    <row r="33" spans="1:39" s="40" customFormat="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="36"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="39"/>
       <c r="T33" s="36"/>
-      <c r="AB33" s="40">
+      <c r="U33" s="36"/>
+      <c r="V33" s="50"/>
+      <c r="AC33" s="40">
         <v>3</v>
       </c>
-      <c r="AI33"/>
       <c r="AJ33"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33"/>
-    </row>
-    <row r="34" spans="1:38" s="40" customFormat="1">
+      <c r="AK33"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33"/>
+    </row>
+    <row r="34" spans="1:39" s="40" customFormat="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="G34" s="37"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
-      <c r="J34" s="37">
+      <c r="J34" s="37"/>
+      <c r="K34" s="37">
         <v>1</v>
       </c>
-      <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="38"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="36"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="39"/>
       <c r="T34" s="36"/>
-      <c r="AE34" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="U34" s="36"/>
+      <c r="V34" s="50"/>
       <c r="AF34" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AI34"/>
+      <c r="AG34" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="AJ34"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34"/>
-    </row>
-    <row r="35" spans="1:38" s="40" customFormat="1">
+      <c r="AK34"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34"/>
+    </row>
+    <row r="35" spans="1:39" s="40" customFormat="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="G35" s="37"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36" t="s">
+        <v>355</v>
+      </c>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="N35" s="38"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37" t="s">
+        <v>354</v>
+      </c>
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="36"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="39"/>
       <c r="T35" s="36"/>
-      <c r="AG35" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI35"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="50"/>
+      <c r="AH35" s="37" t="s">
+        <v>354</v>
+      </c>
       <c r="AJ35"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35"/>
-    </row>
-    <row r="36" spans="1:38">
+      <c r="AK35"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35"/>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="20" t="s">
-        <v>277</v>
-      </c>
+      <c r="I36" s="10"/>
       <c r="J36" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="N36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="11"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="1"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:38">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>279</v>
-      </c>
       <c r="J37" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="N37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="11"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="1"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:38">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>271</v>
-      </c>
       <c r="J38" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="N38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="11"/>
+      <c r="O38" s="12"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="1"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="22"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:38">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="J39" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="N39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="12"/>
-      <c r="O39" s="11"/>
+      <c r="O39" s="12"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="1"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="22"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:38">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="20" t="s">
+      <c r="J40" s="20"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="N40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="11"/>
+      <c r="O40" s="12"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="1"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="22"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:38">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="20" t="s">
+      <c r="J41" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="N41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="11"/>
+      <c r="O41" s="12"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="1"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="22"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:38" ht="18">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:39" ht="18">
       <c r="A42" s="1">
         <v>48</v>
       </c>
@@ -4557,3365 +4642,3394 @@
         <v>139</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="41"/>
+      <c r="G42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>25</v>
       </c>
       <c r="J42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="43">
+      <c r="K42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="43">
         <v>9</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="N42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="11"/>
+      <c r="O42" s="12"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="1"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="22"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:38">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="11"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="1" t="s">
+      <c r="Q43" s="11"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:38">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="1">
         <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="13" t="s">
+      <c r="K44" s="20"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="O44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="1"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="22"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:38">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="1">
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12" t="s">
+      <c r="K45" s="20"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="1"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="22"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:38">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="1">
         <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="11">
+      <c r="K46" s="20"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="11">
         <v>2</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="O46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="1"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="22"/>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:38">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="1">
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="20"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="1"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="22"/>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:38">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="1">
         <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="20"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="12" t="s">
+      <c r="K48" s="20"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="1"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="22"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="1">
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="11">
+      <c r="K49" s="20"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="11">
         <v>1</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="O49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="1"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="22"/>
       <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" s="1">
         <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="11">
+      <c r="K50" s="20"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="11">
         <v>4</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="O50" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="1"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="22"/>
       <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" s="1">
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="11" t="s">
+      <c r="K51" s="20"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="O51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="1"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="22"/>
       <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" s="1">
         <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="20"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="11" t="s">
+      <c r="K52" s="20"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="O52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="1"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="22"/>
       <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" s="1">
         <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="12" t="s">
+      <c r="K53" s="20"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="1"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="22"/>
       <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" s="1">
         <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="11">
+      <c r="K54" s="20"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="11">
         <v>5</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="O54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="1"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="22"/>
       <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" s="1">
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="11">
+      <c r="K55" s="20"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="11">
         <v>3</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="O55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="1"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="22"/>
       <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" s="1">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="20"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="11" t="s">
+      <c r="K56" s="20"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="O56" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="1"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="22"/>
       <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" s="1">
         <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F57" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="20"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="11">
+      <c r="K57" s="20"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="11">
         <v>6</v>
       </c>
-      <c r="N57" s="12" t="s">
+      <c r="O57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="1"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="22"/>
       <c r="T57" s="1"/>
-      <c r="AD57" t="s">
+      <c r="U57" s="1"/>
+      <c r="AE57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:33">
       <c r="A58" s="1">
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="44"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="44"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="11"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="1" t="s">
+      <c r="Q58" s="11"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T58" s="1"/>
-      <c r="V58" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="U58" s="1"/>
+      <c r="W58" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="1">
         <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F59" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="44"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="44"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="11"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="1" t="s">
+      <c r="Q59" s="11"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" s="1">
         <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="17"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="44"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="44"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="11"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="1" t="s">
+      <c r="Q60" s="11"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="1"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" s="1">
         <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="17"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="44"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="44"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="11"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="1" t="s">
+      <c r="Q61" s="11"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="1:32" ht="18">
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:33" ht="18">
       <c r="A62" s="1">
         <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="17"/>
+      <c r="I62" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I62" s="43"/>
       <c r="J62" s="43"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="11" t="s">
+      <c r="K62" s="43"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="N62" s="12"/>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="12"/>
+      <c r="P62" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="P62" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q62" s="13" t="s">
+      <c r="Q62" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="R62" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R62" s="24" t="s">
+      <c r="S62" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T62" s="19" t="s">
+      <c r="U62" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
         <v>119</v>
       </c>
-      <c r="AD62" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>13</v>
+      <c r="AE62" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="AF62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" ht="18">
+      <c r="AG62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="18">
       <c r="A63" s="1">
         <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="17"/>
+      <c r="I63" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="43"/>
       <c r="J63" s="43"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="11" t="s">
+      <c r="K63" s="43"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="N63" s="12"/>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="12"/>
+      <c r="P63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q63" s="13" t="s">
+      <c r="Q63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="R63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="R63" s="24" t="s">
+      <c r="S63" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T63" s="19" t="s">
+      <c r="U63" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AC63" s="19" t="s">
+      <c r="AD63" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="AD63" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>22</v>
+      <c r="AE63" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="AF63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" ht="18">
+      <c r="AG63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="18">
       <c r="A64" s="1">
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="17"/>
+      <c r="I64" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="I64" s="43"/>
       <c r="J64" s="43"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="11" t="s">
+      <c r="K64" s="43"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="N64" s="12"/>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="12"/>
+      <c r="P64" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q64" s="13" t="s">
+      <c r="Q64" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="R64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="R64" s="24" t="s">
+      <c r="S64" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="T64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T64" s="19" t="s">
+      <c r="U64" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AC64" s="19" t="s">
+      <c r="AD64" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="AD64" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>23</v>
+      <c r="AE64" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="AF64" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" ht="18">
+      <c r="AG64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" ht="18">
       <c r="A65" s="1">
         <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="17"/>
+      <c r="I65" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="I65" s="43"/>
       <c r="J65" s="43"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="11" t="s">
+      <c r="K65" s="43"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="N65" s="12"/>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="12"/>
+      <c r="P65" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q65" s="13" t="s">
+      <c r="Q65" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="R65" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="R65" s="24" t="s">
+      <c r="S65" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T65" s="19" t="s">
+      <c r="U65" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AC65" s="19" t="s">
+      <c r="AD65" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="AD65" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>44</v>
+      <c r="AE65" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="AF65" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" ht="18">
+      <c r="AG65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" ht="18">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G66" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="11" t="s">
+      <c r="K66" s="43"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="N66" s="12"/>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="12"/>
+      <c r="P66" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P66" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q66" s="13" t="s">
+      <c r="Q66" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="R66" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="R66" s="24" t="s">
+      <c r="S66" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T66" s="19" t="s">
+      <c r="U66" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AC66" s="19" t="s">
+      <c r="AD66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="AD66" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>21</v>
+      <c r="AE66" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="AF66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" ht="18">
+      <c r="AG66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" ht="18">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G67" t="s">
-        <v>243</v>
-      </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" t="s">
+        <v>240</v>
+      </c>
+      <c r="I67" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I67" s="43"/>
       <c r="J67" s="43"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="11" t="s">
+      <c r="K67" s="43"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="N67" s="12"/>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="12"/>
+      <c r="P67" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P67" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q67" s="13" t="s">
+      <c r="Q67" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="R67" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="R67" s="24" t="s">
+      <c r="S67" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="S67" s="18" t="s">
+      <c r="T67" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T67" s="19" t="s">
+      <c r="U67" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="AC67" s="19" t="s">
+      <c r="AD67" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="AD67" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>14</v>
+      <c r="AE67" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="AF67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" ht="18">
+      <c r="AG67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" ht="18">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G68" t="s">
-        <v>244</v>
-      </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" t="s">
+        <v>241</v>
+      </c>
+      <c r="I68" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I68" s="43"/>
       <c r="J68" s="43"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="11" t="s">
+      <c r="K68" s="43"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="N68" s="12"/>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="12"/>
+      <c r="P68" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P68" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q68" s="13" t="s">
+      <c r="Q68" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="R68" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R68" s="24" t="s">
+      <c r="S68" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="S68" s="18" t="s">
+      <c r="T68" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="T68" s="19" t="s">
+      <c r="U68" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="AC68" s="19" t="s">
+      <c r="AD68" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="AD68" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>20</v>
+      <c r="AE68" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="AF68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:38">
+      <c r="AG68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39">
       <c r="A69" s="1">
         <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="17"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="44"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="44"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="11"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="12"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="22" t="s">
+      <c r="Q69" s="11"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1" t="s">
+      <c r="T69" s="1"/>
+      <c r="U69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH69" t="s">
+      <c r="AI69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:39">
       <c r="A70" s="1">
         <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="17"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="44"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="44"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="11"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="12"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="13" t="s">
+      <c r="Q70" s="11"/>
+      <c r="R70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="R70" s="22" t="s">
+      <c r="S70" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1" t="s">
+      <c r="T70" s="1"/>
+      <c r="U70" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:39">
       <c r="A71" s="1">
         <v>77</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G71" s="17"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="44"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="44"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="11"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="12"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="13" t="s">
+      <c r="Q71" s="11"/>
+      <c r="R71" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="R71" s="22" t="s">
+      <c r="S71" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1" t="s">
+      <c r="T71" s="1"/>
+      <c r="U71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH71" t="s">
+      <c r="AI71" t="s">
         <v>32</v>
       </c>
-      <c r="AL71" t="s">
+      <c r="AM71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:39">
       <c r="A72" s="1">
         <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G72" s="17"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="44"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="44"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="11"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="12"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="1"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="22"/>
       <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="1:38">
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:39">
       <c r="A73" s="1">
         <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="17"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="44"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="44"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="11"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="12"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="1"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="22"/>
       <c r="T73" s="1"/>
-    </row>
-    <row r="74" spans="1:38">
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:39">
       <c r="A74" s="1">
         <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="17"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="44"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="44"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="11" t="s">
+      <c r="K74" s="44"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="N74" s="12"/>
-      <c r="O74" s="11"/>
+      <c r="O74" s="12"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="1"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="22"/>
       <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="1:38">
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:39">
       <c r="A75" s="1">
         <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G75" s="17"/>
       <c r="H75" s="17"/>
-      <c r="I75" s="44"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="44"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="11" t="s">
+      <c r="K75" s="44"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="N75" s="12"/>
-      <c r="O75" s="11"/>
+      <c r="O75" s="12"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="1"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="22"/>
       <c r="T75" s="1"/>
-    </row>
-    <row r="76" spans="1:38">
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:39">
       <c r="A76" s="1">
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G76" s="17"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="44"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="44"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="11" t="s">
+      <c r="K76" s="44"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N76" s="12"/>
-      <c r="O76" s="11"/>
+      <c r="O76" s="12"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="1"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="22"/>
       <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="1:38">
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:39">
       <c r="A77" s="1">
         <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G77" s="17"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="44"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="44"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="11">
+      <c r="K77" s="44"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="11">
         <v>0</v>
       </c>
-      <c r="N77" s="12"/>
-      <c r="O77" s="11"/>
+      <c r="O77" s="12"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="1"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="22"/>
       <c r="T77" s="1"/>
-    </row>
-    <row r="78" spans="1:38">
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:39">
       <c r="A78" s="1">
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G78" s="17"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="44"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="44"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="11">
+      <c r="K78" s="44"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="11">
         <v>9</v>
       </c>
-      <c r="N78" s="12"/>
-      <c r="O78" s="11"/>
+      <c r="O78" s="12"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="1"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="22"/>
       <c r="T78" s="1"/>
-    </row>
-    <row r="79" spans="1:38">
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:39">
       <c r="A79" s="1">
         <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="10"/>
+      <c r="I79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I79" s="20"/>
       <c r="J79" s="20"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="11"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="14"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="22" t="s">
+      <c r="Q79" s="11"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="AC79" t="s">
+      <c r="U79" s="1"/>
+      <c r="AD79" t="s">
         <v>112</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AE79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="18">
+    <row r="80" spans="1:39" ht="18">
       <c r="A80" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="19"/>
+      <c r="G80" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="45"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="45"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="45"/>
-      <c r="U80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38" ht="18">
+      <c r="K80" s="45"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="45"/>
+      <c r="Z80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" ht="18">
       <c r="A81" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" s="7"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="45"/>
+      <c r="I81" s="7"/>
       <c r="J81" s="45"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="45"/>
-      <c r="U81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38" ht="18">
+      <c r="K81" s="45"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="45"/>
+      <c r="AE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" ht="18">
       <c r="A82" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G82" s="7"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="45"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="45"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="45"/>
-      <c r="Y82" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38" ht="18">
+      <c r="K82" s="45"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="45"/>
+      <c r="AE82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" ht="18">
       <c r="A83" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G83" s="7"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="45"/>
+      <c r="I83" s="7"/>
       <c r="J83" s="45"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="45"/>
-      <c r="AD83" t="s">
-        <v>1</v>
-      </c>
+      <c r="K83" s="45"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="45"/>
       <c r="AE83" t="s">
         <v>5</v>
       </c>
       <c r="AF83" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38" ht="18">
+        <v>3</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" ht="18">
       <c r="A84" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G84" s="7"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="45"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="45"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="45"/>
-      <c r="AD84" t="s">
-        <v>3</v>
-      </c>
+      <c r="K84" s="45"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="45"/>
       <c r="AE84" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:38" ht="18">
+        <v>7</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" ht="18">
       <c r="A85" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G85" s="7"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="45"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="45"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="45"/>
-      <c r="AD85" t="s">
-        <v>5</v>
-      </c>
+      <c r="K85" s="45"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="45"/>
       <c r="AE85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38" ht="18">
+        <v>6</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="18">
       <c r="A86" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G86" s="7"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="45"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="45"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="45"/>
-      <c r="AD86" t="s">
-        <v>6</v>
-      </c>
+      <c r="K86" s="45"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="45"/>
       <c r="AE86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38" ht="18">
+        <v>8</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" ht="18">
       <c r="A87" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G87" s="7"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="45"/>
+      <c r="I87" s="7"/>
       <c r="J87" s="45"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="45"/>
-      <c r="AD87" t="s">
-        <v>7</v>
-      </c>
+      <c r="K87" s="45"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="45"/>
       <c r="AE87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" ht="18">
+        <v>9</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" ht="18">
       <c r="A88" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G88" s="7"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="45"/>
+      <c r="I88" s="7"/>
       <c r="J88" s="45"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="45"/>
-      <c r="AD88" t="s">
-        <v>8</v>
-      </c>
+      <c r="K88" s="45"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="45"/>
       <c r="AE88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38" ht="18">
+        <v>11</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" ht="18">
       <c r="A89" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G89" s="7"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="45"/>
+      <c r="I89" s="7"/>
       <c r="J89" s="45"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="45"/>
-      <c r="AD89" t="s">
-        <v>9</v>
-      </c>
+      <c r="K89" s="45"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="45"/>
       <c r="AE89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" ht="18">
+        <v>10</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="18">
       <c r="A90" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G90" s="7"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="45"/>
+      <c r="I90" s="7"/>
       <c r="J90" s="45"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="45"/>
-      <c r="AD90" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38" ht="18">
+      <c r="K90" s="45"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="45"/>
+      <c r="AE90" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" ht="18">
       <c r="A91" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91" s="7"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="45"/>
+      <c r="I91" s="7"/>
       <c r="J91" s="45"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="45"/>
-      <c r="AD91" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" ht="18">
+      <c r="K91" s="45"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="45"/>
+      <c r="AE91" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" ht="18">
       <c r="A92" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G92" s="7"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="45"/>
+      <c r="I92" s="7"/>
       <c r="J92" s="45"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="45"/>
-      <c r="AD92" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" ht="18">
+      <c r="K92" s="45"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="45"/>
+      <c r="AE92" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" ht="18">
       <c r="A93" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G93" s="7"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="45"/>
+      <c r="I93" s="7"/>
       <c r="J93" s="45"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="45"/>
-      <c r="AD93" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38" ht="18">
+      <c r="K93" s="45"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="45"/>
+      <c r="AE93" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="18">
       <c r="A94" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G94" s="7"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="45"/>
+      <c r="I94" s="7"/>
       <c r="J94" s="45"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="45"/>
-      <c r="AD94" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:38" ht="18">
+      <c r="K94" s="45"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="45"/>
+      <c r="AE94" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" ht="18">
       <c r="A95" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G95" s="7"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="45"/>
+      <c r="I95" s="7"/>
       <c r="J95" s="45"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="45"/>
-      <c r="AD95" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38" ht="18">
+      <c r="K95" s="45"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="45"/>
+      <c r="AE95" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="18">
       <c r="A96" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="45"/>
-      <c r="AD96" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" ht="18">
+      <c r="F96" s="19"/>
+      <c r="G96" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE96" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" ht="18">
       <c r="A97" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="19"/>
+      <c r="G97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE97" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" ht="18">
+      <c r="A98" s="1">
+        <v>106</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="45"/>
-      <c r="AD97" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" ht="18">
-      <c r="A98" s="1">
-        <v>104</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="19"/>
+      <c r="G98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AD98" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" ht="18">
+      <c r="AF98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39">
       <c r="A99" s="1">
-        <v>105</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD99" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" ht="18">
+        <v>107</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39">
       <c r="A100" s="1">
-        <v>106</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39">
       <c r="A101" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34">
+      <c r="AG101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" ht="18">
       <c r="A102" s="1">
-        <v>108</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" ht="18">
+      <c r="A103" s="1">
+        <v>111</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" ht="18">
+      <c r="A104" s="1">
+        <v>112</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="19"/>
+      <c r="J104" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="K104" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="L104" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="1:34">
-      <c r="A103" s="1">
-        <v>109</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" ht="18">
-      <c r="A104" s="1">
-        <v>110</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K104" s="1"/>
-      <c r="L104" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG104" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" ht="18">
+      <c r="M104" s="43"/>
+    </row>
+    <row r="105" spans="1:39" ht="18">
       <c r="A105" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>363</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="J105" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" ht="18">
+      <c r="F105" s="19"/>
+      <c r="G105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39">
       <c r="A106" s="1">
-        <v>112</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="J106" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="43"/>
-    </row>
-    <row r="107" spans="1:34" ht="18">
+        <v>114</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39">
       <c r="A107" s="1">
-        <v>113</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G107" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34">
+      <c r="H107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" ht="18">
       <c r="A108" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34">
+        <v>287</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" s="19"/>
+      <c r="J108" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" s="19"/>
+      <c r="M108" s="43"/>
+    </row>
+    <row r="109" spans="1:39" ht="18">
       <c r="A109" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" s="19" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="110" spans="1:34" ht="18">
+      <c r="I109" s="19"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="43"/>
+    </row>
+    <row r="110" spans="1:39">
       <c r="A110" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39">
+      <c r="A111" s="1">
+        <v>119</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G111" t="s">
+        <v>261</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39">
+      <c r="A112" s="1">
+        <v>120</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ112" s="33"/>
+      <c r="AK112" s="33"/>
+      <c r="AM112" s="4"/>
+    </row>
+    <row r="113" spans="1:39">
+      <c r="A113" s="1">
+        <v>121</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G113" t="s">
+        <v>260</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39">
+      <c r="A114" s="1">
+        <v>122</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G114" t="s">
+        <v>282</v>
+      </c>
+      <c r="H114" t="s">
+        <v>484</v>
+      </c>
+      <c r="I114" t="s">
+        <v>484</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39">
+      <c r="A115" s="1">
+        <v>123</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G115" t="s">
+        <v>334</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39">
+      <c r="A116" s="1">
+        <v>124</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G116" t="s">
+        <v>334</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G110" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J110" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K110" s="19"/>
-      <c r="L110" s="43"/>
-    </row>
-    <row r="111" spans="1:34" ht="18">
-      <c r="A111" s="1">
-        <v>117</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="43"/>
-    </row>
-    <row r="112" spans="1:34">
-      <c r="A112" s="1">
-        <v>118</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:38">
-      <c r="A113" s="1">
-        <v>119</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F113" t="s">
-        <v>265</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:38">
-      <c r="A114" s="1">
-        <v>120</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F114" t="s">
-        <v>49</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG114" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH114" t="s">
-        <v>378</v>
-      </c>
-      <c r="AI114" s="33"/>
-      <c r="AJ114" s="33"/>
-      <c r="AL114" s="4"/>
-    </row>
-    <row r="115" spans="1:38">
-      <c r="A115" s="1">
-        <v>121</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F115" t="s">
-        <v>264</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L115" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" spans="1:38">
-      <c r="A116" s="1">
-        <v>122</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F116" t="s">
-        <v>286</v>
-      </c>
-      <c r="G116" t="s">
-        <v>489</v>
-      </c>
-      <c r="H116" t="s">
-        <v>489</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="1:38">
+    </row>
+    <row r="117" spans="1:39">
       <c r="A117" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" t="s">
+        <v>333</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39">
+      <c r="A118" s="1">
+        <v>126</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" t="s">
+        <v>332</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39">
+      <c r="A119" s="1">
+        <v>127</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G119" t="s">
+        <v>327</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F117" t="s">
-        <v>338</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:38">
-      <c r="A118" s="1">
-        <v>124</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F118" t="s">
-        <v>338</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="119" spans="1:38">
-      <c r="A119" s="1">
-        <v>125</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F119" t="s">
-        <v>337</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="120" spans="1:38">
+      <c r="M119" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39">
       <c r="A120" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F120" t="s">
-        <v>336</v>
-      </c>
-      <c r="J120" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="121" spans="1:38">
+      <c r="G120" t="s">
+        <v>62</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M120" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL120" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39">
       <c r="A121" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G121" t="s">
         <v>331</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="K121" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="L121" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:38">
+      <c r="M121" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL121" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39">
       <c r="A122" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F122" t="s">
-        <v>62</v>
-      </c>
-      <c r="J122" s="4" t="s">
+      <c r="F122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G122" t="s">
+        <v>330</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="L122" s="4">
-        <v>3</v>
-      </c>
-      <c r="AK122" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:38">
+      <c r="M122" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL122" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:39">
       <c r="A123" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F123" t="s">
-        <v>335</v>
-      </c>
-      <c r="J123" s="4" t="s">
+      <c r="F123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G123" t="s">
+        <v>329</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="L123" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK123" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:38">
+      <c r="M123" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL123" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:39">
       <c r="A124" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>334</v>
-      </c>
-      <c r="J124" s="4" t="s">
+      <c r="F124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G124" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="L124" s="4">
-        <v>4</v>
-      </c>
-      <c r="AK124" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:38">
+      <c r="M124" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL124" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:39">
       <c r="A125" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>333</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="L125" s="4">
-        <v>6</v>
-      </c>
-      <c r="AK125" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:38">
+      <c r="M125" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL125" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:39">
       <c r="A126" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>50</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK126" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:38">
+      <c r="F126" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G126" t="s">
+        <v>328</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL126" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:39">
       <c r="A127" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G127" t="s">
+        <v>327</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM127" s="40"/>
+    </row>
+    <row r="128" spans="1:39">
+      <c r="A128" s="1">
+        <v>136</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK127" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="1:38">
-      <c r="A128" s="1">
-        <v>134</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="F128" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G128" t="s">
+        <v>327</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>332</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK128" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38">
+      <c r="M128" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ128" s="40"/>
+      <c r="AK128" s="40"/>
+      <c r="AL128" s="47"/>
+      <c r="AM128" s="40"/>
+    </row>
+    <row r="129" spans="1:39">
       <c r="A129" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>331</v>
-      </c>
-      <c r="J129" s="4" t="s">
+      <c r="F129" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G129" t="s">
+        <v>326</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L129" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH129" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL129" s="40"/>
-    </row>
-    <row r="130" spans="1:38">
+      <c r="M129" s="4">
+        <v>7</v>
+      </c>
+      <c r="AL129" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:39">
       <c r="A130" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G130" t="s">
+        <v>51</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F130" t="s">
-        <v>331</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG130" t="s">
-        <v>109</v>
+      <c r="M130" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="AH130" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI130" s="40"/>
-      <c r="AJ130" s="40"/>
-      <c r="AK130" s="47"/>
-      <c r="AL130" s="40"/>
-    </row>
-    <row r="131" spans="1:38">
+        <v>374</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM130" s="4"/>
+    </row>
+    <row r="131" spans="1:39">
       <c r="A131" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F131" t="s">
-        <v>330</v>
-      </c>
-      <c r="J131" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="L131" s="4">
-        <v>7</v>
-      </c>
-      <c r="AK131" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:38">
+      <c r="G131" t="s">
+        <v>325</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:39">
       <c r="A132" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F132" t="s">
-        <v>51</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG132" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH132" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL132" s="4"/>
-    </row>
-    <row r="133" spans="1:38">
+        <v>336</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" t="s">
+        <v>156</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:39">
       <c r="A133" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F133" t="s">
-        <v>329</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:38">
+        <v>338</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G133" t="s">
+        <v>339</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:39">
       <c r="A134" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G134" t="s">
         <v>340</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="M134" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F134" t="s">
-        <v>156</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:38">
+    </row>
+    <row r="135" spans="1:39">
       <c r="A135" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F135" t="s">
-        <v>343</v>
-      </c>
-      <c r="L135" s="4" t="s">
+      <c r="F135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" t="s">
+        <v>334</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:39">
+      <c r="A136" s="1">
+        <v>144</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" t="s">
+        <v>333</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:39">
+      <c r="A137" s="1">
+        <v>145</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" t="s">
+        <v>61</v>
+      </c>
+      <c r="M137" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:39">
+      <c r="A138" s="1">
+        <v>146</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" t="s">
+        <v>277</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:39">
+      <c r="A139" s="1">
+        <v>147</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G139" t="s">
+        <v>326</v>
+      </c>
+      <c r="M139" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL139" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:39">
+      <c r="A140" s="1">
+        <v>148</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G140" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ140" s="40"/>
+      <c r="AK140" s="40"/>
+      <c r="AL140" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM140" s="40"/>
+    </row>
+    <row r="141" spans="1:39">
+      <c r="A141" s="1">
+        <v>148</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G141" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:39">
+      <c r="A142" s="1">
+        <v>149</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ142" s="40"/>
+      <c r="AK142" s="40"/>
+      <c r="AL142" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM142" s="40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:39">
+      <c r="A143" s="1">
+        <v>149</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G143" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:39">
+      <c r="A144" s="1">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G144" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH144">
+        <v>1</v>
+      </c>
+      <c r="AL144" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM144" s="33"/>
+    </row>
+    <row r="145" spans="1:39">
+      <c r="A145" s="1">
+        <v>150</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G145" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:39">
+      <c r="A146" s="1">
+        <v>151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G146" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:39">
+      <c r="A147" s="1">
+        <v>151</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G147" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL147" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:39">
+      <c r="A148" s="1">
+        <v>152</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G148" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:39">
+      <c r="A149" s="1">
+        <v>152</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G149" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL149" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:39">
+      <c r="A150" s="1">
+        <v>153</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G150" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ150" s="40"/>
+      <c r="AK150" s="40"/>
+      <c r="AL150" s="47"/>
+      <c r="AM150" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:39">
+      <c r="A151" s="1">
+        <v>153</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G151" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL151" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:39">
+      <c r="A152" s="1">
+        <v>154</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G152" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:39">
+      <c r="A153" s="1">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G153" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL153" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:39">
+      <c r="A154" s="1">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G154" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:39">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL155" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:39">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G156" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI156" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:39">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G157" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL157" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:39">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G158" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL158" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:39">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G159" t="s">
+        <v>434</v>
+      </c>
+      <c r="AL159" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G160" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL160" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:39">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G161" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:39">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G162" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL162" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:39">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G163" t="s">
+        <v>438</v>
+      </c>
+      <c r="AL163" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="164" spans="1:39">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G164" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:39">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G165" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL165" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:39">
+      <c r="A166" s="1">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G166" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL166" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:39">
+      <c r="A167" s="1">
+        <v>167</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G167" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL167" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
-      <c r="A136" s="1">
-        <v>142</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F136" t="s">
-        <v>344</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:38">
-      <c r="A137" s="1">
-        <v>143</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F137" t="s">
-        <v>338</v>
-      </c>
-      <c r="L137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:38">
-      <c r="A138" s="1">
-        <v>144</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F138" t="s">
-        <v>337</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:38">
-      <c r="A139" s="1">
-        <v>145</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F139" t="s">
-        <v>61</v>
-      </c>
-      <c r="L139" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:38">
-      <c r="A140" s="1">
-        <v>146</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F140" t="s">
-        <v>281</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:38">
-      <c r="A141" s="1">
-        <v>147</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F141" t="s">
-        <v>330</v>
-      </c>
-      <c r="L141" s="4">
-        <v>5</v>
-      </c>
-      <c r="AK141" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:38">
-      <c r="A142" s="1">
-        <v>148</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F142" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG142" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH142" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI142" s="40"/>
-      <c r="AJ142" s="40"/>
-      <c r="AK142" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL142" s="40"/>
-    </row>
-    <row r="143" spans="1:38">
-      <c r="A143" s="1">
-        <v>148</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F143" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK143" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:38">
-      <c r="A144" s="1">
-        <v>149</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F144" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG144" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH144" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI144" s="40"/>
-      <c r="AJ144" s="40"/>
-      <c r="AK144" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL144" s="40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="145" spans="1:38">
-      <c r="A145" s="1">
-        <v>149</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F145" t="s">
-        <v>430</v>
-      </c>
-      <c r="AK145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:38">
-      <c r="A146" s="1">
-        <v>150</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F146" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG146">
-        <v>1</v>
-      </c>
-      <c r="AK146" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL146" s="33"/>
-    </row>
-    <row r="147" spans="1:38">
-      <c r="A147" s="1">
-        <v>150</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F147" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL147" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:38">
-      <c r="A148" s="1">
-        <v>151</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F148" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:38">
-      <c r="A149" s="1">
-        <v>151</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F149" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK149" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:38">
-      <c r="A150" s="1">
-        <v>152</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F150" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:38">
-      <c r="A151" s="1">
-        <v>152</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F151" t="s">
-        <v>433</v>
-      </c>
-      <c r="AK151" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:38">
-      <c r="A152" s="1">
-        <v>153</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F152" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH152" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI152" s="40"/>
-      <c r="AJ152" s="40"/>
-      <c r="AK152" s="47"/>
-      <c r="AL152" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:38">
-      <c r="A153" s="1">
-        <v>153</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F153" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK153" s="4" t="s">
+    <row r="168" spans="1:39">
+      <c r="A168" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="154" spans="1:38">
-      <c r="A154" s="1">
-        <v>154</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F154" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG154" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH154" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL154">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:38">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F155" t="s">
-        <v>435</v>
-      </c>
-      <c r="AK155" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:38">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F156" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG156" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH156" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:38">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F157" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK157" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:38">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F158" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG158" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH158" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:38">
-      <c r="A159" s="1">
-        <v>156</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F159" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK159" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL159" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="160" spans="1:38">
-      <c r="A160" s="1">
-        <v>157</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F160" t="s">
-        <v>438</v>
-      </c>
-      <c r="AK160" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL160" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:38">
-      <c r="A161" s="1">
-        <v>158</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F161" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK161" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="162" spans="1:38">
-      <c r="A162" s="1">
-        <v>159</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F162" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK162" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL162" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:38">
-      <c r="A163" s="1">
-        <v>160</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F163" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK163" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL163" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:38">
-      <c r="A164" s="1">
-        <v>161</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F164" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK164" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:38">
-      <c r="A165" s="1">
-        <v>162</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F165" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK165" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="166" spans="1:38">
-      <c r="A166" s="1">
-        <v>163</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F166" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL166" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:38">
-      <c r="A167" s="1">
-        <v>164</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F167" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK167" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:38">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
       <c r="B168" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL168" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:39">
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G169" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL169" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:39">
+      <c r="A170" s="1">
+        <v>170</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G170" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL170" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:39">
+      <c r="A171" s="1">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G171" t="s">
         <v>460</v>
       </c>
-      <c r="AK168" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL168" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:38">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F169" t="s">
-        <v>461</v>
-      </c>
-      <c r="AK169" s="4" t="s">
+      <c r="AL171" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:39">
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:39">
+      <c r="A173" s="1">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:39">
+      <c r="A174" s="1">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="G174" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:39">
+      <c r="A175" s="1">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:39">
+      <c r="A176" s="1">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1">
+        <v>177</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V177" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="1">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="V178" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F170" t="s">
-        <v>462</v>
-      </c>
-      <c r="AK170" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:38">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F171" t="s">
-        <v>463</v>
-      </c>
-      <c r="AK171" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:38">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F172" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK172" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" spans="1:38">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F173" t="s">
-        <v>465</v>
-      </c>
-      <c r="AK173" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:38">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:38">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:38">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C176" s="27"/>
-      <c r="D176" s="27"/>
-      <c r="F176" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL176" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:38">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL177" t="s">
-        <v>137</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL178">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM176">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V58" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C106" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
-    <hyperlink ref="B113" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
-    <hyperlink ref="B145" r:id="rId4" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP200" xr:uid="{0E3742EF-9A4A-474F-9783-FC2EE040C049}"/>
-    <hyperlink ref="B172" r:id="rId5" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:BUD13" xr:uid="{75A88AA6-40F6-DE4A-9C76-EA000DD59DD9}"/>
+    <hyperlink ref="W58" r:id="rId1" display="http://www.rcsb.org/structure/6ICZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C104" r:id="rId2" location="!/hgnc_id/HGNC:17347" display="https://www.genenames.org/data/gene-symbol-report/ - !/hgnc_id/HGNC:17347" xr:uid="{1873E7CF-1D7B-D14F-A2F0-AA10DB41E974}"/>
+    <hyperlink ref="B111" r:id="rId3" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP27" xr:uid="{5625DE21-DCEF-9048-90E6-80F7019D7C3E}"/>
+    <hyperlink ref="B143" r:id="rId4" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:SNRNP200" xr:uid="{0E3742EF-9A4A-474F-9783-FC2EE040C049}"/>
+    <hyperlink ref="B170" r:id="rId5" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.rcsb_gene_name.value:BUD13" xr:uid="{75A88AA6-40F6-DE4A-9C76-EA000DD59DD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
